--- a/Zilon.Core/Docs/Замеры очков бота.xlsx
+++ b/Zilon.Core/Docs/Замеры очков бота.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS\Zilon_Roguelike\Zilon.Core\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADB7530-85D9-4833-BC60-DA6EAB7FA065}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CADFA2-3041-4B16-AA98-1AD6B99FF574}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{C07C0BAD-7F47-4575-A5A2-9C13F0724588}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Всего секунд</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Очки</t>
+  </si>
+  <si>
+    <t>Среднее время раунда (с)</t>
+  </si>
+  <si>
+    <t>Всего итераций:</t>
   </si>
 </sst>
 </file>
@@ -79,9 +85,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -396,67 +403,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E3621E-9112-43B5-B25A-1EA36BBBDEC8}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>43600.381516203706</v>
+        <v>43601.22483796296</v>
       </c>
       <c r="B1">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1">
         <f>MIN(A:A)</f>
-        <v>43600.330983796295</v>
+        <v>43600.331620370373</v>
       </c>
       <c r="E1">
         <f>D2-D1</f>
-        <v>5.3078703705978114E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.89484953703504289</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43600.381516203706</v>
+        <v>43601.22483796296</v>
       </c>
       <c r="B2">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1">
         <f>MAX(A:A)</f>
-        <v>43600.384062500001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43601.226469907408</v>
+      </c>
+      <c r="G2">
+        <f>COUNT(B:B)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43600.381516203706</v>
+        <v>43601.22483796296</v>
       </c>
       <c r="B3">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43600.381516203706</v>
+        <v>43601.22483796296</v>
       </c>
       <c r="B4">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -467,6549 +481,6556 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43600.381516203706</v>
+        <v>43601.22483796296</v>
       </c>
       <c r="B5">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="D5">
         <f>SECOND(E1)+MINUTE(E1)*60</f>
-        <v>986</v>
+        <v>1715</v>
       </c>
       <c r="E5">
         <f>MINUTE(E1)</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <f>SECOND(E1)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <f>D5/G2</f>
+        <v>1.7150000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43600.381516203706</v>
+        <v>43601.22483796296</v>
       </c>
       <c r="B6">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43600.381516203706</v>
+        <v>43601.22483796296</v>
       </c>
       <c r="B7">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f>AVERAGE(B:B)</f>
-        <v>209.96100000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>232.94200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43600.381516203706</v>
+        <v>43601.22483796296</v>
       </c>
       <c r="B8">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43600.381516203706</v>
+        <v>43601.224849537037</v>
       </c>
       <c r="B9">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43600.381516203706</v>
+        <v>43601.224849537037</v>
       </c>
       <c r="B10">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43600.381550925929</v>
+        <v>43601.224849537037</v>
       </c>
       <c r="B11">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43600.381550925929</v>
+        <v>43601.224849537037</v>
       </c>
       <c r="B12">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43600.381550925929</v>
+        <v>43601.224861111114</v>
       </c>
       <c r="B13">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43600.381550925929</v>
+        <v>43601.224861111114</v>
       </c>
       <c r="B14">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43600.381550925929</v>
+        <v>43601.224861111114</v>
       </c>
       <c r="B15">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43600.381550925929</v>
+        <v>43601.224861111114</v>
       </c>
       <c r="B16">
-        <v>318</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43600.381550925929</v>
+        <v>43601.224861111114</v>
       </c>
       <c r="B17">
-        <v>200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43600.381562499999</v>
+        <v>43601.224872685183</v>
       </c>
       <c r="B18">
-        <v>347</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43600.381562499999</v>
+        <v>43601.224872685183</v>
       </c>
       <c r="B19">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43600.381562499999</v>
+        <v>43601.224872685183</v>
       </c>
       <c r="B20">
-        <v>197</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43600.381585648145</v>
+        <v>43601.224872685183</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43600.381585648145</v>
+        <v>43601.224872685183</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43600.381585648145</v>
+        <v>43601.224872685183</v>
       </c>
       <c r="B23">
-        <v>195</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43600.381585648145</v>
+        <v>43601.224872685183</v>
       </c>
       <c r="B24">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43600.381585648145</v>
+        <v>43601.22488425926</v>
       </c>
       <c r="B25">
-        <v>319</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43600.381585648145</v>
+        <v>43601.22488425926</v>
       </c>
       <c r="B26">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43600.381585648145</v>
+        <v>43601.22488425926</v>
       </c>
       <c r="B27">
-        <v>176</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43600.381585648145</v>
+        <v>43601.22488425926</v>
       </c>
       <c r="B28">
-        <v>176</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43600.381597222222</v>
+        <v>43601.22488425926</v>
       </c>
       <c r="B29">
-        <v>51</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43600.381597222222</v>
+        <v>43601.22488425926</v>
       </c>
       <c r="B30">
-        <v>302</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43600.381608796299</v>
+        <v>43601.22488425926</v>
       </c>
       <c r="B31">
-        <v>269</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43600.381608796299</v>
+        <v>43601.22488425926</v>
       </c>
       <c r="B32">
-        <v>174</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43600.381608796299</v>
+        <v>43601.224895833337</v>
       </c>
       <c r="B33">
-        <v>269</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43600.381608796299</v>
+        <v>43601.224895833337</v>
       </c>
       <c r="B34">
-        <v>178</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43600.381608796299</v>
+        <v>43601.224895833337</v>
       </c>
       <c r="B35">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43600.381608796299</v>
+        <v>43601.224895833337</v>
       </c>
       <c r="B36">
-        <v>223</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43600.381620370368</v>
+        <v>43601.224895833337</v>
       </c>
       <c r="B37">
-        <v>214</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43600.381620370368</v>
+        <v>43601.224907407406</v>
       </c>
       <c r="B38">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43600.381620370368</v>
+        <v>43601.224907407406</v>
       </c>
       <c r="B39">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43600.381631944445</v>
+        <v>43601.224907407406</v>
       </c>
       <c r="B40">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43600.381631944445</v>
+        <v>43601.224907407406</v>
       </c>
       <c r="B41">
-        <v>282</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43600.381631944445</v>
+        <v>43601.224907407406</v>
       </c>
       <c r="B42">
-        <v>125</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43600.381631944445</v>
+        <v>43601.224918981483</v>
       </c>
       <c r="B43">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43600.381631944445</v>
+        <v>43601.224918981483</v>
       </c>
       <c r="B44">
-        <v>370</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43600.381631944445</v>
+        <v>43601.224918981483</v>
       </c>
       <c r="B45">
-        <v>323</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43600.381631944445</v>
+        <v>43601.224918981483</v>
       </c>
       <c r="B46">
-        <v>149</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43600.381631944445</v>
+        <v>43601.224918981483</v>
       </c>
       <c r="B47">
-        <v>176</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43600.381643518522</v>
+        <v>43601.224930555552</v>
       </c>
       <c r="B48">
-        <v>101</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43600.381643518522</v>
+        <v>43601.224930555552</v>
       </c>
       <c r="B49">
-        <v>274</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43600.381655092591</v>
+        <v>43601.224930555552</v>
       </c>
       <c r="B50">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43600.381655092591</v>
+        <v>43601.224930555552</v>
       </c>
       <c r="B51">
-        <v>391</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43600.381655092591</v>
+        <v>43601.224930555552</v>
       </c>
       <c r="B52">
-        <v>178</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>43600.381655092591</v>
+        <v>43601.224930555552</v>
       </c>
       <c r="B53">
-        <v>176</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43600.381655092591</v>
+        <v>43601.224942129629</v>
       </c>
       <c r="B54">
-        <v>250</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>43600.381666666668</v>
+        <v>43601.224942129629</v>
       </c>
       <c r="B55">
-        <v>270</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>43600.381666666668</v>
+        <v>43601.224942129629</v>
       </c>
       <c r="B56">
-        <v>396</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>43600.381666666668</v>
+        <v>43601.224942129629</v>
       </c>
       <c r="B57">
-        <v>220</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>43600.381666666668</v>
+        <v>43601.224942129629</v>
       </c>
       <c r="B58">
-        <v>149</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>43600.381689814814</v>
+        <v>43601.224942129629</v>
       </c>
       <c r="B59">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43600.381689814814</v>
+        <v>43601.224953703706</v>
       </c>
       <c r="B60">
-        <v>102</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>43600.381689814814</v>
+        <v>43601.224953703706</v>
       </c>
       <c r="B61">
-        <v>198</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>43600.381689814814</v>
+        <v>43601.224953703706</v>
       </c>
       <c r="B62">
-        <v>102</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>43600.381689814814</v>
+        <v>43601.224953703706</v>
       </c>
       <c r="B63">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>43600.381689814814</v>
+        <v>43601.224953703706</v>
       </c>
       <c r="B64">
-        <v>252</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>43600.381689814814</v>
+        <v>43601.224953703706</v>
       </c>
       <c r="B65">
-        <v>347</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>43600.381689814814</v>
+        <v>43601.224953703706</v>
       </c>
       <c r="B66">
-        <v>347</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>43600.381689814814</v>
+        <v>43601.224953703706</v>
       </c>
       <c r="B67">
-        <v>347</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>43600.381712962961</v>
+        <v>43601.224965277775</v>
       </c>
       <c r="B68">
-        <v>242</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>43600.381712962961</v>
+        <v>43601.224965277775</v>
       </c>
       <c r="B69">
-        <v>221</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>43600.381712962961</v>
+        <v>43601.224965277775</v>
       </c>
       <c r="B70">
-        <v>150</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>43600.381712962961</v>
+        <v>43601.224965277775</v>
       </c>
       <c r="B71">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>43600.381712962961</v>
+        <v>43601.224965277775</v>
       </c>
       <c r="B72">
-        <v>150</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>43600.381712962961</v>
+        <v>43601.224965277775</v>
       </c>
       <c r="B73">
-        <v>346</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>43600.381712962961</v>
+        <v>43601.224976851852</v>
       </c>
       <c r="B74">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>43600.381724537037</v>
+        <v>43601.224976851852</v>
       </c>
       <c r="B75">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>43600.381736111114</v>
+        <v>43601.224976851852</v>
       </c>
       <c r="B76">
-        <v>226</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>43600.381736111114</v>
+        <v>43601.224976851852</v>
       </c>
       <c r="B77">
-        <v>248</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>43600.381736111114</v>
+        <v>43601.224976851852</v>
       </c>
       <c r="B78">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>43600.381736111114</v>
+        <v>43601.224976851852</v>
       </c>
       <c r="B79">
-        <v>103</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>43600.381736111114</v>
+        <v>43601.224976851852</v>
       </c>
       <c r="B80">
-        <v>103</v>
+        <v>402</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>43600.381736111114</v>
+        <v>43601.224988425929</v>
       </c>
       <c r="B81">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>43600.381736111114</v>
+        <v>43601.224988425929</v>
       </c>
       <c r="B82">
-        <v>145</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>43600.381736111114</v>
+        <v>43601.224988425929</v>
       </c>
       <c r="B83">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>43600.381747685184</v>
+        <v>43601.224988425929</v>
       </c>
       <c r="B84">
-        <v>199</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>43600.38177083333</v>
+        <v>43601.224988425929</v>
       </c>
       <c r="B85">
-        <v>200</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>43600.38177083333</v>
+        <v>43601.224988425929</v>
       </c>
       <c r="B86">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>43600.38177083333</v>
+        <v>43601.224988425929</v>
       </c>
       <c r="B87">
-        <v>225</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>43600.38177083333</v>
+        <v>43601.224988425929</v>
       </c>
       <c r="B88">
-        <v>269</v>
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>43600.38177083333</v>
+        <v>43601.224999999999</v>
       </c>
       <c r="B89">
-        <v>269</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>43600.38177083333</v>
+        <v>43601.224999999999</v>
       </c>
       <c r="B90">
-        <v>294</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>43600.38177083333</v>
+        <v>43601.224999999999</v>
       </c>
       <c r="B91">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>43600.38177083333</v>
+        <v>43601.224999999999</v>
       </c>
       <c r="B92">
-        <v>325</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>43600.38177083333</v>
+        <v>43601.224999999999</v>
       </c>
       <c r="B93">
-        <v>174</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>43600.381782407407</v>
+        <v>43601.224999999999</v>
       </c>
       <c r="B94">
-        <v>74</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>43600.381793981483</v>
+        <v>43601.224999999999</v>
       </c>
       <c r="B95">
-        <v>270</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>43600.381793981483</v>
+        <v>43601.224999999999</v>
       </c>
       <c r="B96">
-        <v>103</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>43600.381793981483</v>
+        <v>43601.224999999999</v>
       </c>
       <c r="B97">
-        <v>147</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>43600.381793981483</v>
+        <v>43601.225011574075</v>
       </c>
       <c r="B98">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>43600.381793981483</v>
+        <v>43601.225011574075</v>
       </c>
       <c r="B99">
-        <v>197</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>43600.381793981483</v>
+        <v>43601.225011574075</v>
       </c>
       <c r="B100">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>43600.381793981483</v>
+        <v>43601.225011574075</v>
       </c>
       <c r="B101">
-        <v>178</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>43600.381793981483</v>
+        <v>43601.225011574075</v>
       </c>
       <c r="B102">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>43600.381793981483</v>
+        <v>43601.225011574075</v>
       </c>
       <c r="B103">
-        <v>174</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>43600.381828703707</v>
+        <v>43601.225023148145</v>
       </c>
       <c r="B104">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>43600.381828703707</v>
+        <v>43601.225023148145</v>
       </c>
       <c r="B105">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>43600.381828703707</v>
+        <v>43601.225023148145</v>
       </c>
       <c r="B106">
-        <v>277</v>
+        <v>347</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>43600.381828703707</v>
+        <v>43601.225023148145</v>
       </c>
       <c r="B107">
-        <v>101</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>43600.381828703707</v>
+        <v>43601.225023148145</v>
       </c>
       <c r="B108">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>43600.381828703707</v>
+        <v>43601.225023148145</v>
       </c>
       <c r="B109">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>43600.381828703707</v>
+        <v>43601.225023148145</v>
       </c>
       <c r="B110">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>43600.381828703707</v>
+        <v>43601.225034722222</v>
       </c>
       <c r="B111">
-        <v>294</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>43600.381851851853</v>
+        <v>43601.225034722222</v>
       </c>
       <c r="B112">
-        <v>246</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>43600.381851851853</v>
+        <v>43601.225034722222</v>
       </c>
       <c r="B113">
-        <v>246</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>43600.381851851853</v>
+        <v>43601.225034722222</v>
       </c>
       <c r="B114">
-        <v>74</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>43600.381851851853</v>
+        <v>43601.225034722222</v>
       </c>
       <c r="B115">
-        <v>325</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>43600.381851851853</v>
+        <v>43601.225034722222</v>
       </c>
       <c r="B116">
-        <v>325</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>43600.381863425922</v>
+        <v>43601.225046296298</v>
       </c>
       <c r="B117">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>43600.381863425922</v>
+        <v>43601.225046296298</v>
       </c>
       <c r="B118">
-        <v>103</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>43600.381863425922</v>
+        <v>43601.225046296298</v>
       </c>
       <c r="B119">
-        <v>103</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>43600.381863425922</v>
+        <v>43601.225046296298</v>
       </c>
       <c r="B120">
-        <v>101</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>43600.381874999999</v>
+        <v>43601.225046296298</v>
       </c>
       <c r="B121">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>43600.381874999999</v>
+        <v>43601.225046296298</v>
       </c>
       <c r="B122">
-        <v>278</v>
+        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>43600.381874999999</v>
+        <v>43601.225046296298</v>
       </c>
       <c r="B123">
-        <v>198</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>43600.381886574076</v>
+        <v>43601.225046296298</v>
       </c>
       <c r="B124">
-        <v>342</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>43600.381886574076</v>
+        <v>43601.225057870368</v>
       </c>
       <c r="B125">
-        <v>303</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>43600.381886574076</v>
+        <v>43601.225057870368</v>
       </c>
       <c r="B126">
-        <v>124</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>43600.381886574076</v>
+        <v>43601.225057870368</v>
       </c>
       <c r="B127">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>43600.381886574076</v>
+        <v>43601.225057870368</v>
       </c>
       <c r="B128">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>43600.381886574076</v>
+        <v>43601.225057870368</v>
       </c>
       <c r="B129">
-        <v>201</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>43600.381909722222</v>
+        <v>43601.225057870368</v>
       </c>
       <c r="B130">
-        <v>152</v>
+        <v>340</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>43600.381909722222</v>
+        <v>43601.225069444445</v>
       </c>
       <c r="B131">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>43600.381909722222</v>
+        <v>43601.225069444445</v>
       </c>
       <c r="B132">
-        <v>246</v>
+        <v>331</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>43600.381909722222</v>
+        <v>43601.225069444445</v>
       </c>
       <c r="B133">
-        <v>126</v>
+        <v>294</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>43600.381909722222</v>
+        <v>43601.225069444445</v>
       </c>
       <c r="B134">
-        <v>274</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>43600.381909722222</v>
+        <v>43601.225069444445</v>
       </c>
       <c r="B135">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>43600.381909722222</v>
+        <v>43601.225069444445</v>
       </c>
       <c r="B136">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>43600.381909722222</v>
+        <v>43601.225069444445</v>
       </c>
       <c r="B137">
-        <v>246</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>43600.381909722222</v>
+        <v>43601.225069444445</v>
       </c>
       <c r="B138">
-        <v>127</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>43600.381921296299</v>
+        <v>43601.225081018521</v>
       </c>
       <c r="B139">
-        <v>201</v>
+        <v>355</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>43600.381932870368</v>
+        <v>43601.225081018521</v>
       </c>
       <c r="B140">
-        <v>249</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>43600.381932870368</v>
+        <v>43601.225081018521</v>
       </c>
       <c r="B141">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>43600.381932870368</v>
+        <v>43601.225081018521</v>
       </c>
       <c r="B142">
-        <v>249</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>43600.381932870368</v>
+        <v>43601.225081018521</v>
       </c>
       <c r="B143">
-        <v>300</v>
+        <v>179</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>43600.381932870368</v>
+        <v>43601.225081018521</v>
       </c>
       <c r="B144">
-        <v>102</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>43600.381932870368</v>
+        <v>43601.225081018521</v>
       </c>
       <c r="B145">
-        <v>173</v>
+        <v>215</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>43600.381932870368</v>
+        <v>43601.225081018521</v>
       </c>
       <c r="B146">
-        <v>173</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>43600.381944444445</v>
+        <v>43601.225092592591</v>
       </c>
       <c r="B147">
-        <v>300</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>43600.381956018522</v>
+        <v>43601.225092592591</v>
       </c>
       <c r="B148">
-        <v>200</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>43600.381956018522</v>
+        <v>43601.225092592591</v>
       </c>
       <c r="B149">
-        <v>374</v>
+        <v>202</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>43600.381956018522</v>
+        <v>43601.225092592591</v>
       </c>
       <c r="B150">
-        <v>125</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>43600.381956018522</v>
+        <v>43601.225092592591</v>
       </c>
       <c r="B151">
-        <v>125</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>43600.381956018522</v>
+        <v>43601.225092592591</v>
       </c>
       <c r="B152">
-        <v>251</v>
+        <v>190</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>43600.381956018522</v>
+        <v>43601.225092592591</v>
       </c>
       <c r="B153">
-        <v>123</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>43600.381956018522</v>
+        <v>43601.225092592591</v>
       </c>
       <c r="B154">
-        <v>272</v>
+        <v>195</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>43600.381956018522</v>
+        <v>43601.225104166668</v>
       </c>
       <c r="B155">
-        <v>245</v>
+        <v>202</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>43600.381979166668</v>
+        <v>43601.225104166668</v>
       </c>
       <c r="B156">
-        <v>77</v>
+        <v>141</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>43600.381979166668</v>
+        <v>43601.225104166668</v>
       </c>
       <c r="B157">
-        <v>151</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>43600.381979166668</v>
+        <v>43601.225104166668</v>
       </c>
       <c r="B158">
-        <v>300</v>
+        <v>192</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>43600.381979166668</v>
+        <v>43601.225104166668</v>
       </c>
       <c r="B159">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>43600.381979166668</v>
+        <v>43601.225104166668</v>
       </c>
       <c r="B160">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>43600.381990740738</v>
+        <v>43601.225104166668</v>
       </c>
       <c r="B161">
-        <v>327</v>
+        <v>280</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>43600.381990740738</v>
+        <v>43601.225104166668</v>
       </c>
       <c r="B162">
-        <v>321</v>
+        <v>342</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>43600.382002314815</v>
+        <v>43601.225104166668</v>
       </c>
       <c r="B163">
-        <v>176</v>
+        <v>116</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>43600.382002314815</v>
+        <v>43601.225115740737</v>
       </c>
       <c r="B164">
-        <v>151</v>
+        <v>319</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>43600.382002314815</v>
+        <v>43601.225115740737</v>
       </c>
       <c r="B165">
-        <v>449</v>
+        <v>287</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>43600.382002314815</v>
+        <v>43601.225115740737</v>
       </c>
       <c r="B166">
-        <v>449</v>
+        <v>339</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>43600.382002314815</v>
+        <v>43601.225115740737</v>
       </c>
       <c r="B167">
-        <v>449</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>43600.382002314815</v>
+        <v>43601.225127314814</v>
       </c>
       <c r="B168">
-        <v>325</v>
+        <v>242</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>43600.382002314815</v>
+        <v>43601.225127314814</v>
       </c>
       <c r="B169">
-        <v>343</v>
+        <v>106</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>43600.382013888891</v>
+        <v>43601.225127314814</v>
       </c>
       <c r="B170">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>43600.382013888891</v>
+        <v>43601.225127314814</v>
       </c>
       <c r="B171">
-        <v>95</v>
+        <v>367</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>43600.382013888891</v>
+        <v>43601.225127314814</v>
       </c>
       <c r="B172">
-        <v>100</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>43600.382025462961</v>
+        <v>43601.225127314814</v>
       </c>
       <c r="B173">
-        <v>252</v>
+        <v>121</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>43600.382025462961</v>
+        <v>43601.225127314814</v>
       </c>
       <c r="B174">
-        <v>98</v>
+        <v>276</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>43600.382037037038</v>
+        <v>43601.225138888891</v>
       </c>
       <c r="B175">
-        <v>51</v>
+        <v>225</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>43600.382037037038</v>
+        <v>43601.225138888891</v>
       </c>
       <c r="B176">
-        <v>51</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>43600.382037037038</v>
+        <v>43601.225138888891</v>
       </c>
       <c r="B177">
-        <v>254</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>43600.382048611114</v>
+        <v>43601.225138888891</v>
       </c>
       <c r="B178">
-        <v>126</v>
+        <v>225</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>43600.382048611114</v>
+        <v>43601.225138888891</v>
       </c>
       <c r="B179">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>43600.382048611114</v>
+        <v>43601.225138888891</v>
       </c>
       <c r="B180">
-        <v>346</v>
+        <v>254</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>43600.382048611114</v>
+        <v>43601.225138888891</v>
       </c>
       <c r="B181">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>43600.382048611114</v>
+        <v>43601.225138888891</v>
       </c>
       <c r="B182">
-        <v>271</v>
+        <v>389</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>43600.382048611114</v>
+        <v>43601.22515046296</v>
       </c>
       <c r="B183">
-        <v>271</v>
+        <v>340</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>43600.382048611114</v>
+        <v>43601.22515046296</v>
       </c>
       <c r="B184">
-        <v>320</v>
+        <v>167</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>43600.382048611114</v>
+        <v>43601.22515046296</v>
       </c>
       <c r="B185">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>43600.382048611114</v>
+        <v>43601.22515046296</v>
       </c>
       <c r="B186">
-        <v>275</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>43600.382060185184</v>
+        <v>43601.22515046296</v>
       </c>
       <c r="B187">
-        <v>253</v>
+        <v>337</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>43600.382060185184</v>
+        <v>43601.22515046296</v>
       </c>
       <c r="B188">
-        <v>151</v>
+        <v>255</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>43600.382060185184</v>
+        <v>43601.225162037037</v>
       </c>
       <c r="B189">
-        <v>275</v>
+        <v>94</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>43600.382071759261</v>
+        <v>43601.225162037037</v>
       </c>
       <c r="B190">
-        <v>243</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>43600.382071759261</v>
+        <v>43601.225162037037</v>
       </c>
       <c r="B191">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>43600.382071759261</v>
+        <v>43601.225162037037</v>
       </c>
       <c r="B192">
-        <v>174</v>
+        <v>243</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>43600.382071759261</v>
+        <v>43601.225162037037</v>
       </c>
       <c r="B193">
-        <v>345</v>
+        <v>286</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>43600.382071759261</v>
+        <v>43601.225173611114</v>
       </c>
       <c r="B194">
-        <v>174</v>
+        <v>317</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>43600.38208333333</v>
+        <v>43601.225173611114</v>
       </c>
       <c r="B195">
-        <v>198</v>
+        <v>141</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>43600.38208333333</v>
+        <v>43601.225173611114</v>
       </c>
       <c r="B196">
-        <v>198</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>43600.38208333333</v>
+        <v>43601.225173611114</v>
       </c>
       <c r="B197">
-        <v>198</v>
+        <v>168</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>43600.38208333333</v>
+        <v>43601.225173611114</v>
       </c>
       <c r="B198">
-        <v>244</v>
+        <v>285</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>43600.382094907407</v>
+        <v>43601.225173611114</v>
       </c>
       <c r="B199">
-        <v>176</v>
+        <v>419</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>43600.382094907407</v>
+        <v>43601.225173611114</v>
       </c>
       <c r="B200">
-        <v>176</v>
+        <v>316</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>43600.382094907407</v>
+        <v>43601.225185185183</v>
       </c>
       <c r="B201">
-        <v>76</v>
+        <v>367</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>43600.382094907407</v>
+        <v>43601.225185185183</v>
       </c>
       <c r="B202">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>43600.382094907407</v>
+        <v>43601.225185185183</v>
       </c>
       <c r="B203">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>43600.382094907407</v>
+        <v>43601.225185185183</v>
       </c>
       <c r="B204">
-        <v>222</v>
+        <v>295</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>43600.382094907407</v>
+        <v>43601.225185185183</v>
       </c>
       <c r="B205">
-        <v>222</v>
+        <v>246</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>43600.382106481484</v>
+        <v>43601.225185185183</v>
       </c>
       <c r="B206">
-        <v>126</v>
+        <v>362</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>43600.382106481484</v>
+        <v>43601.225185185183</v>
       </c>
       <c r="B207">
-        <v>225</v>
+        <v>298</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>43600.382118055553</v>
+        <v>43601.225185185183</v>
       </c>
       <c r="B208">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>43600.382118055553</v>
+        <v>43601.22519675926</v>
       </c>
       <c r="B209">
-        <v>176</v>
+        <v>240</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>43600.382118055553</v>
+        <v>43601.22519675926</v>
       </c>
       <c r="B210">
-        <v>247</v>
+        <v>299</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>43600.382118055553</v>
+        <v>43601.22519675926</v>
       </c>
       <c r="B211">
-        <v>199</v>
+        <v>372</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>43600.382118055553</v>
+        <v>43601.22519675926</v>
       </c>
       <c r="B212">
-        <v>198</v>
+        <v>267</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>43600.382118055553</v>
+        <v>43601.22519675926</v>
       </c>
       <c r="B213">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>43600.382118055553</v>
+        <v>43601.22519675926</v>
       </c>
       <c r="B214">
-        <v>277</v>
+        <v>194</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>43600.382118055553</v>
+        <v>43601.225208333337</v>
       </c>
       <c r="B215">
-        <v>277</v>
+        <v>179</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>43600.382118055553</v>
+        <v>43601.225208333337</v>
       </c>
       <c r="B216">
-        <v>224</v>
+        <v>363</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>43600.382141203707</v>
+        <v>43601.225208333337</v>
       </c>
       <c r="B217">
-        <v>349</v>
+        <v>247</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>43600.382152777776</v>
+        <v>43601.225208333337</v>
       </c>
       <c r="B218">
-        <v>122</v>
+        <v>288</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>43600.382152777776</v>
+        <v>43601.225208333337</v>
       </c>
       <c r="B219">
-        <v>122</v>
+        <v>169</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>43600.382152777776</v>
+        <v>43601.225208333337</v>
       </c>
       <c r="B220">
-        <v>345</v>
+        <v>192</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>43600.382152777776</v>
+        <v>43601.225208333337</v>
       </c>
       <c r="B221">
-        <v>345</v>
+        <v>287</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>43600.382152777776</v>
+        <v>43601.225208333337</v>
       </c>
       <c r="B222">
-        <v>293</v>
+        <v>263</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>43600.382152777776</v>
+        <v>43601.225219907406</v>
       </c>
       <c r="B223">
-        <v>197</v>
+        <v>67</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>43600.382152777776</v>
+        <v>43601.225219907406</v>
       </c>
       <c r="B224">
-        <v>226</v>
+        <v>254</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>43600.382152777776</v>
+        <v>43601.225219907406</v>
       </c>
       <c r="B225">
-        <v>76</v>
+        <v>191</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>43600.382175925923</v>
+        <v>43601.225219907406</v>
       </c>
       <c r="B226">
-        <v>25</v>
+        <v>123</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>43600.382175925923</v>
+        <v>43601.225219907406</v>
       </c>
       <c r="B227">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>43600.382175925923</v>
+        <v>43601.225219907406</v>
       </c>
       <c r="B228">
-        <v>200</v>
+        <v>471</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>43600.382175925923</v>
+        <v>43601.225231481483</v>
       </c>
       <c r="B229">
-        <v>200</v>
+        <v>342</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>43600.382175925923</v>
+        <v>43601.225231481483</v>
       </c>
       <c r="B230">
-        <v>48</v>
+        <v>295</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>43600.382175925923</v>
+        <v>43601.225231481483</v>
       </c>
       <c r="B231">
-        <v>177</v>
+        <v>260</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>43600.382187499999</v>
+        <v>43601.225231481483</v>
       </c>
       <c r="B232">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>43600.382199074076</v>
+        <v>43601.225231481483</v>
       </c>
       <c r="B233">
-        <v>271</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>43600.382199074076</v>
+        <v>43601.225231481483</v>
       </c>
       <c r="B234">
-        <v>268</v>
+        <v>151</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>43600.382199074076</v>
+        <v>43601.225231481483</v>
       </c>
       <c r="B235">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>43600.382199074076</v>
+        <v>43601.225243055553</v>
       </c>
       <c r="B236">
-        <v>177</v>
+        <v>340</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>43600.382210648146</v>
+        <v>43601.225243055553</v>
       </c>
       <c r="B237">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>43600.382210648146</v>
+        <v>43601.225243055553</v>
       </c>
       <c r="B238">
-        <v>148</v>
+        <v>367</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>43600.382210648146</v>
+        <v>43601.225243055553</v>
       </c>
       <c r="B239">
-        <v>350</v>
+        <v>326</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>43600.382222222222</v>
+        <v>43601.225243055553</v>
       </c>
       <c r="B240">
-        <v>125</v>
+        <v>280</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>43600.382222222222</v>
+        <v>43601.225243055553</v>
       </c>
       <c r="B241">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>43600.382222222222</v>
+        <v>43601.225243055553</v>
       </c>
       <c r="B242">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>43600.382233796299</v>
+        <v>43601.225254629629</v>
       </c>
       <c r="B243">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>43600.382233796299</v>
+        <v>43601.225254629629</v>
       </c>
       <c r="B244">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>43600.382245370369</v>
+        <v>43601.225254629629</v>
       </c>
       <c r="B245">
-        <v>176</v>
+        <v>245</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>43600.382245370369</v>
+        <v>43601.225254629629</v>
       </c>
       <c r="B246">
-        <v>225</v>
+        <v>175</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>43600.382245370369</v>
+        <v>43601.225254629629</v>
       </c>
       <c r="B247">
-        <v>225</v>
+        <v>142</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>43600.382245370369</v>
+        <v>43601.225254629629</v>
       </c>
       <c r="B248">
-        <v>325</v>
+        <v>286</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>43600.382245370369</v>
+        <v>43601.225254629629</v>
       </c>
       <c r="B249">
-        <v>325</v>
+        <v>65</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>43600.382268518515</v>
+        <v>43601.225254629629</v>
       </c>
       <c r="B250">
-        <v>140</v>
+        <v>194</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>43600.382268518515</v>
+        <v>43601.225266203706</v>
       </c>
       <c r="B251">
-        <v>188</v>
+        <v>243</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>43600.382268518515</v>
+        <v>43601.225266203706</v>
       </c>
       <c r="B252">
-        <v>272</v>
+        <v>389</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>43600.382268518515</v>
+        <v>43601.225266203706</v>
       </c>
       <c r="B253">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>43600.382268518515</v>
+        <v>43601.225266203706</v>
       </c>
       <c r="B254">
-        <v>243</v>
+        <v>155</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>43600.382268518515</v>
+        <v>43601.225266203706</v>
       </c>
       <c r="B255">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>43600.382268518515</v>
+        <v>43601.225266203706</v>
       </c>
       <c r="B256">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>43600.382268518515</v>
+        <v>43601.225266203706</v>
       </c>
       <c r="B257">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>43600.382268518515</v>
+        <v>43601.225266203706</v>
       </c>
       <c r="B258">
-        <v>397</v>
+        <v>227</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>43600.382280092592</v>
+        <v>43601.225277777776</v>
       </c>
       <c r="B259">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>43600.382291666669</v>
+        <v>43601.225277777776</v>
       </c>
       <c r="B260">
-        <v>220</v>
+        <v>352</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>43600.382291666669</v>
+        <v>43601.225277777776</v>
       </c>
       <c r="B261">
-        <v>146</v>
+        <v>376</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>43600.382291666669</v>
+        <v>43601.225277777776</v>
       </c>
       <c r="B262">
-        <v>124</v>
+        <v>205</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>43600.382291666669</v>
+        <v>43601.225277777776</v>
       </c>
       <c r="B263">
-        <v>124</v>
+        <v>403</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>43600.382291666669</v>
+        <v>43601.225277777776</v>
       </c>
       <c r="B264">
-        <v>271</v>
+        <v>146</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>43600.382291666669</v>
+        <v>43601.225289351853</v>
       </c>
       <c r="B265">
-        <v>100</v>
+        <v>220</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>43600.382291666669</v>
+        <v>43601.225289351853</v>
       </c>
       <c r="B266">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>43600.382291666669</v>
+        <v>43601.225289351853</v>
       </c>
       <c r="B267">
-        <v>200</v>
+        <v>168</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>43600.382303240738</v>
+        <v>43601.225289351853</v>
       </c>
       <c r="B268">
-        <v>126</v>
+        <v>192</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>43600.382303240738</v>
+        <v>43601.225289351853</v>
       </c>
       <c r="B269">
-        <v>198</v>
+        <v>114</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>43600.382303240738</v>
+        <v>43601.225289351853</v>
       </c>
       <c r="B270">
-        <v>296</v>
+        <v>236</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>43600.382303240738</v>
+        <v>43601.225300925929</v>
       </c>
       <c r="B271">
-        <v>302</v>
+        <v>222</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>43600.382303240738</v>
+        <v>43601.225300925929</v>
       </c>
       <c r="B272">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>43600.382303240738</v>
+        <v>43601.225300925929</v>
       </c>
       <c r="B273">
-        <v>200</v>
+        <v>93</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>43600.382314814815</v>
+        <v>43601.225300925929</v>
       </c>
       <c r="B274">
-        <v>341</v>
+        <v>121</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>43600.382314814815</v>
+        <v>43601.225300925929</v>
       </c>
       <c r="B275">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>43600.382314814815</v>
+        <v>43601.225300925929</v>
       </c>
       <c r="B276">
-        <v>127</v>
+        <v>219</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>43600.382314814815</v>
+        <v>43601.225300925929</v>
       </c>
       <c r="B277">
-        <v>217</v>
+        <v>310</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>43600.382314814815</v>
+        <v>43601.225312499999</v>
       </c>
       <c r="B278">
-        <v>400</v>
+        <v>310</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>43600.382326388892</v>
+        <v>43601.225312499999</v>
       </c>
       <c r="B279">
-        <v>248</v>
+        <v>319</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>43600.382326388892</v>
+        <v>43601.225312499999</v>
       </c>
       <c r="B280">
-        <v>248</v>
+        <v>119</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>43600.382326388892</v>
+        <v>43601.225312499999</v>
       </c>
       <c r="B281">
-        <v>345</v>
+        <v>262</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>43600.382337962961</v>
+        <v>43601.225312499999</v>
       </c>
       <c r="B282">
-        <v>56</v>
+        <v>265</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>43600.382337962961</v>
+        <v>43601.225312499999</v>
       </c>
       <c r="B283">
-        <v>56</v>
+        <v>351</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>43600.382337962961</v>
+        <v>43601.225324074076</v>
       </c>
       <c r="B284">
-        <v>267</v>
+        <v>316</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>43600.382337962961</v>
+        <v>43601.225324074076</v>
       </c>
       <c r="B285">
-        <v>267</v>
+        <v>96</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>43600.382337962961</v>
+        <v>43601.225324074076</v>
       </c>
       <c r="B286">
-        <v>197</v>
+        <v>312</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>43600.382337962961</v>
+        <v>43601.225324074076</v>
       </c>
       <c r="B287">
-        <v>52</v>
+        <v>348</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>43600.382337962961</v>
+        <v>43601.225335648145</v>
       </c>
       <c r="B288">
-        <v>52</v>
+        <v>400</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>43600.382349537038</v>
+        <v>43601.225335648145</v>
       </c>
       <c r="B289">
-        <v>184</v>
+        <v>219</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>43600.382349537038</v>
+        <v>43601.225335648145</v>
       </c>
       <c r="B290">
-        <v>300</v>
+        <v>170</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>43600.382349537038</v>
+        <v>43601.225335648145</v>
       </c>
       <c r="B291">
-        <v>223</v>
+        <v>300</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>43600.382349537038</v>
+        <v>43601.225335648145</v>
       </c>
       <c r="B292">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>43600.382361111115</v>
+        <v>43601.225335648145</v>
       </c>
       <c r="B293">
-        <v>50</v>
+        <v>382</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>43600.382361111115</v>
+        <v>43601.225335648145</v>
       </c>
       <c r="B294">
-        <v>50</v>
+        <v>303</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>43600.382372685184</v>
+        <v>43601.225347222222</v>
       </c>
       <c r="B295">
-        <v>272</v>
+        <v>192</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>43600.382372685184</v>
+        <v>43601.225347222222</v>
       </c>
       <c r="B296">
-        <v>100</v>
+        <v>171</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>43600.382372685184</v>
+        <v>43601.225347222222</v>
       </c>
       <c r="B297">
-        <v>172</v>
+        <v>101</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>43600.382372685184</v>
+        <v>43601.225347222222</v>
       </c>
       <c r="B298">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>43600.382372685184</v>
+        <v>43601.225347222222</v>
       </c>
       <c r="B299">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>43600.382372685184</v>
+        <v>43601.225347222222</v>
       </c>
       <c r="B300">
-        <v>370</v>
+        <v>118</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>43600.382372685184</v>
+        <v>43601.225347222222</v>
       </c>
       <c r="B301">
-        <v>78</v>
+        <v>215</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>43600.382384259261</v>
+        <v>43601.225347222222</v>
       </c>
       <c r="B302">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>43600.382384259261</v>
+        <v>43601.225358796299</v>
       </c>
       <c r="B303">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>43600.382384259261</v>
+        <v>43601.225358796299</v>
       </c>
       <c r="B304">
-        <v>126</v>
+        <v>241</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>43600.382384259261</v>
+        <v>43601.225358796299</v>
       </c>
       <c r="B305">
-        <v>350</v>
+        <v>165</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>43600.382384259261</v>
+        <v>43601.225358796299</v>
       </c>
       <c r="B306">
-        <v>293</v>
+        <v>395</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>43600.382384259261</v>
+        <v>43601.225358796299</v>
       </c>
       <c r="B307">
-        <v>293</v>
+        <v>179</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>43600.382384259261</v>
+        <v>43601.225358796299</v>
       </c>
       <c r="B308">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>43600.382395833331</v>
+        <v>43601.225358796299</v>
       </c>
       <c r="B309">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>43600.382395833331</v>
+        <v>43601.225358796299</v>
       </c>
       <c r="B310">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>43600.382395833331</v>
+        <v>43601.225370370368</v>
       </c>
       <c r="B311">
-        <v>125</v>
+        <v>223</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>43600.382407407407</v>
+        <v>43601.225370370368</v>
       </c>
       <c r="B312">
-        <v>173</v>
+        <v>403</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>43600.382407407407</v>
+        <v>43601.225370370368</v>
       </c>
       <c r="B313">
-        <v>199</v>
+        <v>375</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>43600.382407407407</v>
+        <v>43601.225370370368</v>
       </c>
       <c r="B314">
-        <v>173</v>
+        <v>268</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>43600.382407407407</v>
+        <v>43601.225370370368</v>
       </c>
       <c r="B315">
-        <v>76</v>
+        <v>198</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>43600.382407407407</v>
+        <v>43601.225370370368</v>
       </c>
       <c r="B316">
-        <v>149</v>
+        <v>198</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>43600.382407407407</v>
+        <v>43601.225370370368</v>
       </c>
       <c r="B317">
-        <v>50</v>
+        <v>317</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>43600.382418981484</v>
+        <v>43601.225370370368</v>
       </c>
       <c r="B318">
-        <v>259</v>
+        <v>298</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>43600.382418981484</v>
+        <v>43601.225381944445</v>
       </c>
       <c r="B319">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>43600.382430555554</v>
+        <v>43601.225381944445</v>
       </c>
       <c r="B320">
-        <v>99</v>
+        <v>341</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>43600.382430555554</v>
+        <v>43601.225381944445</v>
       </c>
       <c r="B321">
-        <v>99</v>
+        <v>261</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>43600.382430555554</v>
+        <v>43601.225381944445</v>
       </c>
       <c r="B322">
-        <v>135</v>
+        <v>317</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>43600.382430555554</v>
+        <v>43601.225381944445</v>
       </c>
       <c r="B323">
-        <v>135</v>
+        <v>449</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>43600.382430555554</v>
+        <v>43601.225393518522</v>
       </c>
       <c r="B324">
-        <v>91</v>
+        <v>242</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>43600.38244212963</v>
+        <v>43601.225393518522</v>
       </c>
       <c r="B325">
-        <v>273</v>
+        <v>242</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>43600.38244212963</v>
+        <v>43601.225393518522</v>
       </c>
       <c r="B326">
-        <v>26</v>
+        <v>374</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>43600.38244212963</v>
+        <v>43601.225393518522</v>
       </c>
       <c r="B327">
-        <v>106</v>
+        <v>53</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>43600.38244212963</v>
+        <v>43601.225393518522</v>
       </c>
       <c r="B328">
-        <v>328</v>
+        <v>301</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>43600.38244212963</v>
+        <v>43601.225393518522</v>
       </c>
       <c r="B329">
-        <v>328</v>
+        <v>89</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>43600.382453703707</v>
+        <v>43601.225393518522</v>
       </c>
       <c r="B330">
-        <v>201</v>
+        <v>76</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>43600.382453703707</v>
+        <v>43601.225393518522</v>
       </c>
       <c r="B331">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>43600.382453703707</v>
+        <v>43601.225393518522</v>
       </c>
       <c r="B332">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>43600.382453703707</v>
+        <v>43601.225405092591</v>
       </c>
       <c r="B333">
-        <v>225</v>
+        <v>258</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>43600.382453703707</v>
+        <v>43601.225405092591</v>
       </c>
       <c r="B334">
-        <v>207</v>
+        <v>295</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>43600.382465277777</v>
+        <v>43601.225405092591</v>
       </c>
       <c r="B335">
-        <v>55</v>
+        <v>220</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>43600.382465277777</v>
+        <v>43601.225405092591</v>
       </c>
       <c r="B336">
-        <v>102</v>
+        <v>181</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>43600.382465277777</v>
+        <v>43601.225405092591</v>
       </c>
       <c r="B337">
-        <v>297</v>
+        <v>193</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>43600.382465277777</v>
+        <v>43601.225405092591</v>
       </c>
       <c r="B338">
-        <v>76</v>
+        <v>145</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>43600.382476851853</v>
+        <v>43601.225405092591</v>
       </c>
       <c r="B339">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>43600.382476851853</v>
+        <v>43601.225405092591</v>
       </c>
       <c r="B340">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>43600.382476851853</v>
+        <v>43601.225416666668</v>
       </c>
       <c r="B341">
-        <v>329</v>
+        <v>177</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>43600.382476851853</v>
+        <v>43601.225416666668</v>
       </c>
       <c r="B342">
-        <v>329</v>
+        <v>141</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>43600.382476851853</v>
+        <v>43601.225416666668</v>
       </c>
       <c r="B343">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>43600.382488425923</v>
+        <v>43601.225416666668</v>
       </c>
       <c r="B344">
-        <v>149</v>
+        <v>340</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>43600.382488425923</v>
+        <v>43601.225416666668</v>
       </c>
       <c r="B345">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>43600.382488425923</v>
+        <v>43601.225416666668</v>
       </c>
       <c r="B346">
-        <v>252</v>
+        <v>196</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>43600.382488425923</v>
+        <v>43601.225428240738</v>
       </c>
       <c r="B347">
-        <v>173</v>
+        <v>105</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>43600.382488425923</v>
+        <v>43601.225428240738</v>
       </c>
       <c r="B348">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>43600.3825</v>
+        <v>43601.225428240738</v>
       </c>
       <c r="B349">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>43600.3825</v>
+        <v>43601.225428240738</v>
       </c>
       <c r="B350">
-        <v>319</v>
+        <v>209</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>43600.3825</v>
+        <v>43601.225428240738</v>
       </c>
       <c r="B351">
-        <v>77</v>
+        <v>243</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>43600.3825</v>
+        <v>43601.225428240738</v>
       </c>
       <c r="B352">
-        <v>265</v>
+        <v>392</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>43600.382511574076</v>
+        <v>43601.225428240738</v>
       </c>
       <c r="B353">
-        <v>125</v>
+        <v>366</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>43600.382511574076</v>
+        <v>43601.225439814814</v>
       </c>
       <c r="B354">
-        <v>220</v>
+        <v>293</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>43600.382511574076</v>
+        <v>43601.225439814814</v>
       </c>
       <c r="B355">
-        <v>251</v>
+        <v>378</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>43600.382511574076</v>
+        <v>43601.225439814814</v>
       </c>
       <c r="B356">
-        <v>277</v>
+        <v>154</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>43600.382511574076</v>
+        <v>43601.225439814814</v>
       </c>
       <c r="B357">
-        <v>122</v>
+        <v>220</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>43600.382523148146</v>
+        <v>43601.225439814814</v>
       </c>
       <c r="B358">
-        <v>300</v>
+        <v>336</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>43600.382523148146</v>
+        <v>43601.225439814814</v>
       </c>
       <c r="B359">
-        <v>300</v>
+        <v>378</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>43600.382523148146</v>
+        <v>43601.225439814814</v>
       </c>
       <c r="B360">
-        <v>146</v>
+        <v>367</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>43600.382523148146</v>
+        <v>43601.225451388891</v>
       </c>
       <c r="B361">
-        <v>146</v>
+        <v>223</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>43600.382523148146</v>
+        <v>43601.225451388891</v>
       </c>
       <c r="B362">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>43600.382523148146</v>
+        <v>43601.225451388891</v>
       </c>
       <c r="B363">
-        <v>47</v>
+        <v>119</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>43600.382534722223</v>
+        <v>43601.225451388891</v>
       </c>
       <c r="B364">
-        <v>291</v>
+        <v>192</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>43600.382534722223</v>
+        <v>43601.225451388891</v>
       </c>
       <c r="B365">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>43600.382534722223</v>
+        <v>43601.225451388891</v>
       </c>
       <c r="B366">
-        <v>325</v>
+        <v>196</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>43600.382534722223</v>
+        <v>43601.225451388891</v>
       </c>
       <c r="B367">
-        <v>370</v>
+        <v>112</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>43600.382534722223</v>
+        <v>43601.225462962961</v>
       </c>
       <c r="B368">
-        <v>345</v>
+        <v>119</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>43600.382534722223</v>
+        <v>43601.225462962961</v>
       </c>
       <c r="B369">
-        <v>370</v>
+        <v>119</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>43600.3825462963</v>
+        <v>43601.225462962961</v>
       </c>
       <c r="B370">
-        <v>75</v>
+        <v>270</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>43600.3825462963</v>
+        <v>43601.225462962961</v>
       </c>
       <c r="B371">
-        <v>75</v>
+        <v>321</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>43600.3825462963</v>
+        <v>43601.225462962961</v>
       </c>
       <c r="B372">
-        <v>369</v>
+        <v>248</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>43600.382557870369</v>
+        <v>43601.225474537037</v>
       </c>
       <c r="B373">
-        <v>275</v>
+        <v>166</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>43600.382557870369</v>
+        <v>43601.225474537037</v>
       </c>
       <c r="B374">
-        <v>101</v>
+        <v>288</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>43600.382557870369</v>
+        <v>43601.225474537037</v>
       </c>
       <c r="B375">
-        <v>268</v>
+        <v>322</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>43600.382557870369</v>
+        <v>43601.225474537037</v>
       </c>
       <c r="B376">
-        <v>329</v>
+        <v>223</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>43600.382557870369</v>
+        <v>43601.225474537037</v>
       </c>
       <c r="B377">
-        <v>125</v>
+        <v>388</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>43600.382557870369</v>
+        <v>43601.225474537037</v>
       </c>
       <c r="B378">
-        <v>176</v>
+        <v>269</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>43600.382569444446</v>
+        <v>43601.225486111114</v>
       </c>
       <c r="B379">
-        <v>150</v>
+        <v>241</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>43600.382569444446</v>
+        <v>43601.225486111114</v>
       </c>
       <c r="B380">
-        <v>150</v>
+        <v>202</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>43600.382569444446</v>
+        <v>43601.225486111114</v>
       </c>
       <c r="B381">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>43600.382569444446</v>
+        <v>43601.225486111114</v>
       </c>
       <c r="B382">
-        <v>175</v>
+        <v>224</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>43600.382581018515</v>
+        <v>43601.225486111114</v>
       </c>
       <c r="B383">
-        <v>50</v>
+        <v>228</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>43600.382592592592</v>
+        <v>43601.225486111114</v>
       </c>
       <c r="B384">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>43600.382592592592</v>
+        <v>43601.225486111114</v>
       </c>
       <c r="B385">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>43600.382592592592</v>
+        <v>43601.225486111114</v>
       </c>
       <c r="B386">
-        <v>319</v>
+        <v>170</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>43600.382592592592</v>
+        <v>43601.225486111114</v>
       </c>
       <c r="B387">
-        <v>319</v>
+        <v>193</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>43600.382592592592</v>
+        <v>43601.225497685184</v>
       </c>
       <c r="B388">
-        <v>350</v>
+        <v>440</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>43600.382592592592</v>
+        <v>43601.225497685184</v>
       </c>
       <c r="B389">
-        <v>350</v>
+        <v>203</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>43600.382592592592</v>
+        <v>43601.225497685184</v>
       </c>
       <c r="B390">
-        <v>350</v>
+        <v>249</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>43600.382604166669</v>
+        <v>43601.225497685184</v>
       </c>
       <c r="B391">
-        <v>149</v>
+        <v>269</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>43600.382604166669</v>
+        <v>43601.225497685184</v>
       </c>
       <c r="B392">
-        <v>149</v>
+        <v>295</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>43600.382604166669</v>
+        <v>43601.225497685184</v>
       </c>
       <c r="B393">
-        <v>245</v>
+        <v>106</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>43600.382604166669</v>
+        <v>43601.225497685184</v>
       </c>
       <c r="B394">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>43600.382604166669</v>
+        <v>43601.22550925926</v>
       </c>
       <c r="B395">
-        <v>268</v>
+        <v>343</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>43600.382604166669</v>
+        <v>43601.22550925926</v>
       </c>
       <c r="B396">
-        <v>268</v>
+        <v>141</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>43600.382604166669</v>
+        <v>43601.22550925926</v>
       </c>
       <c r="B397">
-        <v>268</v>
+        <v>218</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>43600.382615740738</v>
+        <v>43601.22550925926</v>
       </c>
       <c r="B398">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>43600.382615740738</v>
+        <v>43601.22550925926</v>
       </c>
       <c r="B399">
-        <v>226</v>
+        <v>194</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>43600.382615740738</v>
+        <v>43601.22550925926</v>
       </c>
       <c r="B400">
-        <v>74</v>
+        <v>267</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>43600.382615740738</v>
+        <v>43601.22552083333</v>
       </c>
       <c r="B401">
-        <v>294</v>
+        <v>192</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>43600.382627314815</v>
+        <v>43601.22552083333</v>
       </c>
       <c r="B402">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>43600.382627314815</v>
+        <v>43601.22552083333</v>
       </c>
       <c r="B403">
-        <v>72</v>
+        <v>241</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>43600.382627314815</v>
+        <v>43601.22552083333</v>
       </c>
       <c r="B404">
-        <v>275</v>
+        <v>201</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>43600.382627314815</v>
+        <v>43601.22552083333</v>
       </c>
       <c r="B405">
-        <v>326</v>
+        <v>345</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>43600.382627314815</v>
+        <v>43601.22552083333</v>
       </c>
       <c r="B406">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>43600.382638888892</v>
+        <v>43601.225532407407</v>
       </c>
       <c r="B407">
-        <v>249</v>
+        <v>77</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>43600.382650462961</v>
+        <v>43601.225532407407</v>
       </c>
       <c r="B408">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>43600.382650462961</v>
+        <v>43601.225532407407</v>
       </c>
       <c r="B409">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>43600.382650462961</v>
+        <v>43601.225532407407</v>
       </c>
       <c r="B410">
-        <v>121</v>
+        <v>303</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>43600.382650462961</v>
+        <v>43601.225532407407</v>
       </c>
       <c r="B411">
-        <v>337</v>
+        <v>365</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>43600.382650462961</v>
+        <v>43601.225532407407</v>
       </c>
       <c r="B412">
-        <v>337</v>
+        <v>121</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>43600.382650462961</v>
+        <v>43601.225532407407</v>
       </c>
       <c r="B413">
-        <v>301</v>
+        <v>259</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>43600.382662037038</v>
+        <v>43601.225543981483</v>
       </c>
       <c r="B414">
-        <v>125</v>
+        <v>313</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>43600.382662037038</v>
+        <v>43601.225543981483</v>
       </c>
       <c r="B415">
-        <v>75</v>
+        <v>141</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>43600.382662037038</v>
+        <v>43601.225543981483</v>
       </c>
       <c r="B416">
-        <v>249</v>
+        <v>96</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>43600.382673611108</v>
+        <v>43601.225543981483</v>
       </c>
       <c r="B417">
-        <v>51</v>
+        <v>195</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>43600.382673611108</v>
+        <v>43601.225543981483</v>
       </c>
       <c r="B418">
-        <v>51</v>
+        <v>196</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>43600.382673611108</v>
+        <v>43601.225543981483</v>
       </c>
       <c r="B419">
-        <v>149</v>
+        <v>212</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>43600.382673611108</v>
+        <v>43601.225555555553</v>
       </c>
       <c r="B420">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>43600.382673611108</v>
+        <v>43601.225555555553</v>
       </c>
       <c r="B421">
-        <v>373</v>
+        <v>340</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>43600.382696759261</v>
+        <v>43601.225555555553</v>
       </c>
       <c r="B422">
-        <v>174</v>
+        <v>230</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>43600.382696759261</v>
+        <v>43601.225555555553</v>
       </c>
       <c r="B423">
-        <v>174</v>
+        <v>268</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>43600.382696759261</v>
+        <v>43601.225555555553</v>
       </c>
       <c r="B424">
-        <v>224</v>
+        <v>191</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>43600.382696759261</v>
+        <v>43601.22556712963</v>
       </c>
       <c r="B425">
-        <v>224</v>
+        <v>266</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>43600.382696759261</v>
+        <v>43601.22556712963</v>
       </c>
       <c r="B426">
-        <v>242</v>
+        <v>449</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>43600.382696759261</v>
+        <v>43601.22556712963</v>
       </c>
       <c r="B427">
-        <v>223</v>
+        <v>187</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>43600.382696759261</v>
+        <v>43601.22556712963</v>
       </c>
       <c r="B428">
-        <v>173</v>
+        <v>245</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>43600.382696759261</v>
+        <v>43601.22556712963</v>
       </c>
       <c r="B429">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>43600.382719907408</v>
+        <v>43601.22556712963</v>
       </c>
       <c r="B430">
-        <v>130</v>
+        <v>261</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>43600.382719907408</v>
+        <v>43601.225578703707</v>
       </c>
       <c r="B431">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>43600.382719907408</v>
+        <v>43601.225578703707</v>
       </c>
       <c r="B432">
-        <v>99</v>
+        <v>301</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>43600.382719907408</v>
+        <v>43601.225578703707</v>
       </c>
       <c r="B433">
-        <v>174</v>
+        <v>264</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>43600.382719907408</v>
+        <v>43601.225578703707</v>
       </c>
       <c r="B434">
-        <v>174</v>
+        <v>119</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>43600.382719907408</v>
+        <v>43601.225578703707</v>
       </c>
       <c r="B435">
-        <v>99</v>
+        <v>204</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>43600.382719907408</v>
+        <v>43601.225578703707</v>
       </c>
       <c r="B436">
-        <v>174</v>
+        <v>318</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>43600.382719907408</v>
+        <v>43601.225578703707</v>
       </c>
       <c r="B437">
-        <v>273</v>
+        <v>94</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>43600.382731481484</v>
+        <v>43601.225578703707</v>
       </c>
       <c r="B438">
-        <v>51</v>
+        <v>424</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>43600.382731481484</v>
+        <v>43601.225578703707</v>
       </c>
       <c r="B439">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>43600.382731481484</v>
+        <v>43601.225590277776</v>
       </c>
       <c r="B440">
-        <v>80</v>
+        <v>235</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>43600.382731481484</v>
+        <v>43601.225590277776</v>
       </c>
       <c r="B441">
-        <v>80</v>
+        <v>320</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>43600.382731481484</v>
+        <v>43601.225590277776</v>
       </c>
       <c r="B442">
-        <v>173</v>
+        <v>248</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>43600.382731481484</v>
+        <v>43601.225590277776</v>
       </c>
       <c r="B443">
-        <v>126</v>
+        <v>233</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>43600.382743055554</v>
+        <v>43601.225590277776</v>
       </c>
       <c r="B444">
-        <v>126</v>
+        <v>166</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>43600.382743055554</v>
+        <v>43601.225601851853</v>
       </c>
       <c r="B445">
-        <v>271</v>
+        <v>144</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>43600.382743055554</v>
+        <v>43601.225601851853</v>
       </c>
       <c r="B446">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>43600.382743055554</v>
+        <v>43601.225601851853</v>
       </c>
       <c r="B447">
-        <v>273</v>
+        <v>194</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>43600.382743055554</v>
+        <v>43601.225601851853</v>
       </c>
       <c r="B448">
-        <v>277</v>
+        <v>190</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>43600.382743055554</v>
+        <v>43601.225601851853</v>
       </c>
       <c r="B449">
-        <v>50</v>
+        <v>334</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>43600.382743055554</v>
+        <v>43601.225601851853</v>
       </c>
       <c r="B450">
-        <v>271</v>
+        <v>140</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>43600.382754629631</v>
+        <v>43601.225613425922</v>
       </c>
       <c r="B451">
-        <v>122</v>
+        <v>286</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>43600.3827662037</v>
+        <v>43601.225613425922</v>
       </c>
       <c r="B452">
-        <v>174</v>
+        <v>392</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>43600.3827662037</v>
+        <v>43601.225613425922</v>
       </c>
       <c r="B453">
-        <v>174</v>
+        <v>222</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>43600.3827662037</v>
+        <v>43601.225613425922</v>
       </c>
       <c r="B454">
-        <v>171</v>
+        <v>399</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>43600.3827662037</v>
+        <v>43601.225613425922</v>
       </c>
       <c r="B455">
-        <v>420</v>
+        <v>264</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>43600.3827662037</v>
+        <v>43601.225613425922</v>
       </c>
       <c r="B456">
-        <v>249</v>
+        <v>280</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>43600.3827662037</v>
+        <v>43601.225624999999</v>
       </c>
       <c r="B457">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>43600.3827662037</v>
+        <v>43601.225624999999</v>
       </c>
       <c r="B458">
-        <v>320</v>
+        <v>230</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>43600.3827662037</v>
+        <v>43601.225624999999</v>
       </c>
       <c r="B459">
-        <v>300</v>
+        <v>176</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>43600.382777777777</v>
+        <v>43601.225624999999</v>
       </c>
       <c r="B460">
-        <v>71</v>
+        <v>352</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>43600.382789351854</v>
+        <v>43601.225624999999</v>
       </c>
       <c r="B461">
-        <v>100</v>
+        <v>274</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>43600.382789351854</v>
+        <v>43601.225624999999</v>
       </c>
       <c r="B462">
-        <v>184</v>
+        <v>376</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>43600.382789351854</v>
+        <v>43601.225624999999</v>
       </c>
       <c r="B463">
-        <v>140</v>
+        <v>404</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>43600.382789351854</v>
+        <v>43601.225636574076</v>
       </c>
       <c r="B464">
-        <v>140</v>
+        <v>314</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>43600.382800925923</v>
+        <v>43601.225636574076</v>
       </c>
       <c r="B465">
-        <v>202</v>
+        <v>67</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>43600.382800925923</v>
+        <v>43601.225636574076</v>
       </c>
       <c r="B466">
-        <v>72</v>
+        <v>290</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>43600.382800925923</v>
+        <v>43601.225636574076</v>
       </c>
       <c r="B467">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>43600.3828125</v>
+        <v>43601.225636574076</v>
       </c>
       <c r="B468">
-        <v>419</v>
+        <v>266</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>43600.3828125</v>
+        <v>43601.225648148145</v>
       </c>
       <c r="B469">
-        <v>373</v>
+        <v>294</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>43600.3828125</v>
+        <v>43601.225648148145</v>
       </c>
       <c r="B470">
-        <v>126</v>
+        <v>376</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>43600.3828125</v>
+        <v>43601.225648148145</v>
       </c>
       <c r="B471">
-        <v>324</v>
+        <v>193</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>43600.3828125</v>
+        <v>43601.225648148145</v>
       </c>
       <c r="B472">
-        <v>173</v>
+        <v>216</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>43600.3828125</v>
+        <v>43601.225648148145</v>
       </c>
       <c r="B473">
-        <v>326</v>
+        <v>239</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>43600.382824074077</v>
+        <v>43601.225648148145</v>
       </c>
       <c r="B474">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>43600.382824074077</v>
+        <v>43601.225648148145</v>
       </c>
       <c r="B475">
-        <v>203</v>
+        <v>265</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>43600.382835648146</v>
+        <v>43601.225659722222</v>
       </c>
       <c r="B476">
-        <v>173</v>
+        <v>140</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>43600.382835648146</v>
+        <v>43601.225659722222</v>
       </c>
       <c r="B477">
-        <v>173</v>
+        <v>304</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>43600.382835648146</v>
+        <v>43601.225659722222</v>
       </c>
       <c r="B478">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>43600.382835648146</v>
+        <v>43601.225659722222</v>
       </c>
       <c r="B479">
-        <v>252</v>
+        <v>326</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>43600.382847222223</v>
+        <v>43601.225659722222</v>
       </c>
       <c r="B480">
-        <v>74</v>
+        <v>342</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>43600.382847222223</v>
+        <v>43601.225659722222</v>
       </c>
       <c r="B481">
-        <v>75</v>
+        <v>292</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>43600.382847222223</v>
+        <v>43601.225659722222</v>
       </c>
       <c r="B482">
-        <v>175</v>
+        <v>312</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>43600.382847222223</v>
+        <v>43601.225671296299</v>
       </c>
       <c r="B483">
-        <v>229</v>
+        <v>322</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>43600.382847222223</v>
+        <v>43601.225671296299</v>
       </c>
       <c r="B484">
-        <v>103</v>
+        <v>223</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>43600.3828587963</v>
+        <v>43601.225671296299</v>
       </c>
       <c r="B485">
-        <v>100</v>
+        <v>422</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>43600.3828587963</v>
+        <v>43601.225671296299</v>
       </c>
       <c r="B486">
-        <v>75</v>
+        <v>276</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>43600.3828587963</v>
+        <v>43601.225671296299</v>
       </c>
       <c r="B487">
-        <v>301</v>
+        <v>192</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>43600.3828587963</v>
+        <v>43601.225671296299</v>
       </c>
       <c r="B488">
-        <v>126</v>
+        <v>336</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>43600.3828587963</v>
+        <v>43601.225671296299</v>
       </c>
       <c r="B489">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>43600.3828587963</v>
+        <v>43601.225682870368</v>
       </c>
       <c r="B490">
-        <v>293</v>
+        <v>130</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>43600.382870370369</v>
+        <v>43601.225682870368</v>
       </c>
       <c r="B491">
-        <v>198</v>
+        <v>166</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>43600.382870370369</v>
+        <v>43601.225682870368</v>
       </c>
       <c r="B492">
-        <v>198</v>
+        <v>295</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>43600.382870370369</v>
+        <v>43601.225682870368</v>
       </c>
       <c r="B493">
-        <v>176</v>
+        <v>241</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>43600.382870370369</v>
+        <v>43601.225682870368</v>
       </c>
       <c r="B494">
-        <v>196</v>
+        <v>143</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>43600.382870370369</v>
+        <v>43601.225694444445</v>
       </c>
       <c r="B495">
-        <v>173</v>
+        <v>142</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>43600.382870370369</v>
+        <v>43601.225694444445</v>
       </c>
       <c r="B496">
-        <v>198</v>
+        <v>120</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>43600.382893518516</v>
+        <v>43601.225694444445</v>
       </c>
       <c r="B497">
-        <v>152</v>
+        <v>262</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>43600.382893518516</v>
+        <v>43601.225694444445</v>
       </c>
       <c r="B498">
-        <v>123</v>
+        <v>315</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>43600.382893518516</v>
+        <v>43601.225694444445</v>
       </c>
       <c r="B499">
-        <v>123</v>
+        <v>218</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>43600.382893518516</v>
+        <v>43601.225694444445</v>
       </c>
       <c r="B500">
-        <v>218</v>
+        <v>290</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>43600.382893518516</v>
+        <v>43601.225694444445</v>
       </c>
       <c r="B501">
-        <v>272</v>
+        <v>217</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>43600.382893518516</v>
+        <v>43601.225694444445</v>
       </c>
       <c r="B502">
-        <v>376</v>
+        <v>140</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>43600.382893518516</v>
+        <v>43601.225706018522</v>
       </c>
       <c r="B503">
-        <v>249</v>
+        <v>193</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>43600.382893518516</v>
+        <v>43601.225706018522</v>
       </c>
       <c r="B504">
-        <v>376</v>
+        <v>330</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>43600.382893518516</v>
+        <v>43601.225706018522</v>
       </c>
       <c r="B505">
-        <v>125</v>
+        <v>243</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>43600.382905092592</v>
+        <v>43601.225706018522</v>
       </c>
       <c r="B506">
-        <v>197</v>
+        <v>242</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>43600.382916666669</v>
+        <v>43601.225706018522</v>
       </c>
       <c r="B507">
-        <v>129</v>
+        <v>346</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>43600.382916666669</v>
+        <v>43601.225706018522</v>
       </c>
       <c r="B508">
-        <v>100</v>
+        <v>244</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>43600.382916666669</v>
+        <v>43601.225706018522</v>
       </c>
       <c r="B509">
-        <v>75</v>
+        <v>288</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>43600.382928240739</v>
+        <v>43601.225706018522</v>
       </c>
       <c r="B510">
-        <v>76</v>
+        <v>191</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>43600.382928240739</v>
+        <v>43601.225717592592</v>
       </c>
       <c r="B511">
-        <v>75</v>
+        <v>304</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>43600.382928240739</v>
+        <v>43601.225717592592</v>
       </c>
       <c r="B512">
-        <v>369</v>
+        <v>240</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>43600.382928240739</v>
+        <v>43601.225717592592</v>
       </c>
       <c r="B513">
-        <v>369</v>
+        <v>297</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>43600.382939814815</v>
+        <v>43601.225717592592</v>
       </c>
       <c r="B514">
-        <v>176</v>
+        <v>143</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>43600.382939814815</v>
+        <v>43601.225717592592</v>
       </c>
       <c r="B515">
-        <v>176</v>
+        <v>90</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>43600.382939814815</v>
+        <v>43601.225717592592</v>
       </c>
       <c r="B516">
-        <v>51</v>
+        <v>241</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>43600.382939814815</v>
+        <v>43601.225717592592</v>
       </c>
       <c r="B517">
-        <v>242</v>
+        <v>271</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>43600.382939814815</v>
+        <v>43601.225729166668</v>
       </c>
       <c r="B518">
-        <v>226</v>
+        <v>165</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>43600.382951388892</v>
+        <v>43601.225729166668</v>
       </c>
       <c r="B519">
-        <v>220</v>
+        <v>118</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>43600.382962962962</v>
+        <v>43601.225729166668</v>
       </c>
       <c r="B520">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>43600.382962962962</v>
+        <v>43601.225729166668</v>
       </c>
       <c r="B521">
-        <v>76</v>
+        <v>265</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>43600.382962962962</v>
+        <v>43601.225740740738</v>
       </c>
       <c r="B522">
-        <v>148</v>
+        <v>67</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>43600.382962962962</v>
+        <v>43601.225740740738</v>
       </c>
       <c r="B523">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>43600.382962962962</v>
+        <v>43601.225740740738</v>
       </c>
       <c r="B524">
-        <v>325</v>
+        <v>302</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>43600.382962962962</v>
+        <v>43601.225740740738</v>
       </c>
       <c r="B525">
-        <v>325</v>
+        <v>280</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>43600.382974537039</v>
+        <v>43601.225740740738</v>
       </c>
       <c r="B526">
-        <v>192</v>
+        <v>226</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>43600.382974537039</v>
+        <v>43601.225740740738</v>
       </c>
       <c r="B527">
-        <v>104</v>
+        <v>227</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>43600.382974537039</v>
+        <v>43601.225740740738</v>
       </c>
       <c r="B528">
-        <v>272</v>
+        <v>67</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>43600.382986111108</v>
+        <v>43601.225740740738</v>
       </c>
       <c r="B529">
-        <v>102</v>
+        <v>317</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>43600.382986111108</v>
+        <v>43601.225752314815</v>
       </c>
       <c r="B530">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>43600.382986111108</v>
+        <v>43601.225752314815</v>
       </c>
       <c r="B531">
-        <v>201</v>
+        <v>94</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>43600.382986111108</v>
+        <v>43601.225752314815</v>
       </c>
       <c r="B532">
-        <v>50</v>
+        <v>178</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>43600.382986111108</v>
+        <v>43601.225752314815</v>
       </c>
       <c r="B533">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>43600.382986111108</v>
+        <v>43601.225752314815</v>
       </c>
       <c r="B534">
-        <v>294</v>
+        <v>343</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>43600.382986111108</v>
+        <v>43601.225763888891</v>
       </c>
       <c r="B535">
-        <v>197</v>
+        <v>263</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>43600.382997685185</v>
+        <v>43601.225763888891</v>
       </c>
       <c r="B536">
-        <v>371</v>
+        <v>277</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>43600.382997685185</v>
+        <v>43601.225763888891</v>
       </c>
       <c r="B537">
-        <v>271</v>
+        <v>90</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>43600.383009259262</v>
+        <v>43601.225763888891</v>
       </c>
       <c r="B538">
-        <v>215</v>
+        <v>322</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>43600.383009259262</v>
+        <v>43601.225763888891</v>
       </c>
       <c r="B539">
-        <v>215</v>
+        <v>116</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>43600.383020833331</v>
+        <v>43601.225763888891</v>
       </c>
       <c r="B540">
-        <v>248</v>
+        <v>144</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>43600.383020833331</v>
+        <v>43601.225763888891</v>
       </c>
       <c r="B541">
-        <v>127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>43600.383020833331</v>
+        <v>43601.225775462961</v>
       </c>
       <c r="B542">
-        <v>326</v>
+        <v>377</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>43600.383020833331</v>
+        <v>43601.225775462961</v>
       </c>
       <c r="B543">
-        <v>199</v>
+        <v>292</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>43600.383032407408</v>
+        <v>43601.225775462961</v>
       </c>
       <c r="B544">
-        <v>275</v>
+        <v>228</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>43600.383043981485</v>
+        <v>43601.225775462961</v>
       </c>
       <c r="B545">
-        <v>201</v>
+        <v>121</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>43600.383043981485</v>
+        <v>43601.225775462961</v>
       </c>
       <c r="B546">
-        <v>124</v>
+        <v>217</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>43600.383043981485</v>
+        <v>43601.225775462961</v>
       </c>
       <c r="B547">
-        <v>201</v>
+        <v>167</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>43600.383043981485</v>
+        <v>43601.225775462961</v>
       </c>
       <c r="B548">
-        <v>225</v>
+        <v>296</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>43600.383043981485</v>
+        <v>43601.225775462961</v>
       </c>
       <c r="B549">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>43600.383043981485</v>
+        <v>43601.225787037038</v>
       </c>
       <c r="B550">
-        <v>124</v>
+        <v>167</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>43600.383043981485</v>
+        <v>43601.225787037038</v>
       </c>
       <c r="B551">
-        <v>73</v>
+        <v>329</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>43600.383043981485</v>
+        <v>43601.225787037038</v>
       </c>
       <c r="B552">
-        <v>176</v>
+        <v>336</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>43600.383055555554</v>
+        <v>43601.225798611114</v>
       </c>
       <c r="B553">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>43600.383067129631</v>
+        <v>43601.225798611114</v>
       </c>
       <c r="B554">
-        <v>342</v>
+        <v>95</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>43600.383067129631</v>
+        <v>43601.225798611114</v>
       </c>
       <c r="B555">
-        <v>268</v>
+        <v>143</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>43600.383067129631</v>
+        <v>43601.225798611114</v>
       </c>
       <c r="B556">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>43600.383067129631</v>
+        <v>43601.225798611114</v>
       </c>
       <c r="B557">
-        <v>250</v>
+        <v>141</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>43600.383067129631</v>
+        <v>43601.225798611114</v>
       </c>
       <c r="B558">
-        <v>250</v>
+        <v>132</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>43600.383067129631</v>
+        <v>43601.225798611114</v>
       </c>
       <c r="B559">
-        <v>320</v>
+        <v>288</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>43600.383067129631</v>
+        <v>43601.225810185184</v>
       </c>
       <c r="B560">
-        <v>295</v>
+        <v>70</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>43600.383067129631</v>
+        <v>43601.225810185184</v>
       </c>
       <c r="B561">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>43600.383067129631</v>
+        <v>43601.225810185184</v>
       </c>
       <c r="B562">
-        <v>225</v>
+        <v>147</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>43600.3830787037</v>
+        <v>43601.225810185184</v>
       </c>
       <c r="B563">
-        <v>101</v>
+        <v>265</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>43600.383090277777</v>
+        <v>43601.225810185184</v>
       </c>
       <c r="B564">
-        <v>199</v>
+        <v>118</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>43600.383090277777</v>
+        <v>43601.225810185184</v>
       </c>
       <c r="B565">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>43600.383090277777</v>
+        <v>43601.225810185184</v>
       </c>
       <c r="B566">
-        <v>126</v>
+        <v>169</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>43600.383090277777</v>
+        <v>43601.225810185184</v>
       </c>
       <c r="B567">
-        <v>327</v>
+        <v>176</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>43600.383090277777</v>
+        <v>43601.225821759261</v>
       </c>
       <c r="B568">
-        <v>201</v>
+        <v>315</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>43600.383090277777</v>
+        <v>43601.225821759261</v>
       </c>
       <c r="B569">
-        <v>201</v>
+        <v>291</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>43600.383090277777</v>
+        <v>43601.225821759261</v>
       </c>
       <c r="B570">
-        <v>101</v>
+        <v>178</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>43600.383113425924</v>
+        <v>43601.225821759261</v>
       </c>
       <c r="B571">
-        <v>223</v>
+        <v>443</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>43600.383113425924</v>
+        <v>43601.225821759261</v>
       </c>
       <c r="B572">
-        <v>100</v>
+        <v>368</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>43600.383113425924</v>
+        <v>43601.225821759261</v>
       </c>
       <c r="B573">
-        <v>148</v>
+        <v>253</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>43600.383113425924</v>
+        <v>43601.225821759261</v>
       </c>
       <c r="B574">
-        <v>224</v>
+        <v>331</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>43600.383113425924</v>
+        <v>43601.22583333333</v>
       </c>
       <c r="B575">
-        <v>146</v>
+        <v>214</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>43600.383113425924</v>
+        <v>43601.22583333333</v>
       </c>
       <c r="B576">
-        <v>346</v>
+        <v>116</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>43600.383125</v>
+        <v>43601.22583333333</v>
       </c>
       <c r="B577">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>43600.383125</v>
+        <v>43601.22583333333</v>
       </c>
       <c r="B578">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>43600.383136574077</v>
+        <v>43601.22583333333</v>
       </c>
       <c r="B579">
-        <v>270</v>
+        <v>219</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>43600.383136574077</v>
+        <v>43601.22583333333</v>
       </c>
       <c r="B580">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>43600.383136574077</v>
+        <v>43601.22583333333</v>
       </c>
       <c r="B581">
-        <v>343</v>
+        <v>218</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>43600.383136574077</v>
+        <v>43601.225844907407</v>
       </c>
       <c r="B582">
-        <v>223</v>
+        <v>170</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>43600.383136574077</v>
+        <v>43601.225844907407</v>
       </c>
       <c r="B583">
-        <v>240</v>
+        <v>412</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>43600.383148148147</v>
+        <v>43601.225844907407</v>
       </c>
       <c r="B584">
-        <v>220</v>
+        <v>253</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>43600.383148148147</v>
+        <v>43601.225844907407</v>
       </c>
       <c r="B585">
-        <v>249</v>
+        <v>92</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>43600.383148148147</v>
+        <v>43601.225844907407</v>
       </c>
       <c r="B586">
-        <v>249</v>
+        <v>165</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>43600.383148148147</v>
+        <v>43601.225856481484</v>
       </c>
       <c r="B587">
-        <v>129</v>
+        <v>222</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>43600.383148148147</v>
+        <v>43601.225856481484</v>
       </c>
       <c r="B588">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>43600.383159722223</v>
+        <v>43601.225856481484</v>
       </c>
       <c r="B589">
-        <v>124</v>
+        <v>169</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>43600.383159722223</v>
+        <v>43601.225856481484</v>
       </c>
       <c r="B590">
-        <v>372</v>
+        <v>189</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>43600.383159722223</v>
+        <v>43601.225856481484</v>
       </c>
       <c r="B591">
-        <v>322</v>
+        <v>132</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>43600.383171296293</v>
+        <v>43601.225856481484</v>
       </c>
       <c r="B592">
-        <v>345</v>
+        <v>287</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>43600.383171296293</v>
+        <v>43601.225868055553</v>
       </c>
       <c r="B593">
-        <v>324</v>
+        <v>268</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>43600.383171296293</v>
+        <v>43601.225868055553</v>
       </c>
       <c r="B594">
-        <v>248</v>
+        <v>304</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>43600.383171296293</v>
+        <v>43601.225868055553</v>
       </c>
       <c r="B595">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>43600.383171296293</v>
+        <v>43601.225868055553</v>
       </c>
       <c r="B596">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>43600.38318287037</v>
+        <v>43601.225868055553</v>
       </c>
       <c r="B597">
-        <v>443</v>
+        <v>353</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>43600.38318287037</v>
+        <v>43601.225868055553</v>
       </c>
       <c r="B598">
-        <v>298</v>
+        <v>338</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>43600.38318287037</v>
+        <v>43601.225868055553</v>
       </c>
       <c r="B599">
-        <v>298</v>
+        <v>94</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>43600.38318287037</v>
+        <v>43601.225868055553</v>
       </c>
       <c r="B600">
-        <v>150</v>
+        <v>418</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>43600.383194444446</v>
+        <v>43601.22587962963</v>
       </c>
       <c r="B601">
-        <v>133</v>
+        <v>293</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>43600.383194444446</v>
+        <v>43601.22587962963</v>
       </c>
       <c r="B602">
-        <v>201</v>
+        <v>103</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>43600.383194444446</v>
+        <v>43601.22587962963</v>
       </c>
       <c r="B603">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>43600.383194444446</v>
+        <v>43601.22587962963</v>
       </c>
       <c r="B604">
-        <v>247</v>
+        <v>347</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>43600.383206018516</v>
+        <v>43601.22587962963</v>
       </c>
       <c r="B605">
-        <v>151</v>
+        <v>217</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>43600.383206018516</v>
+        <v>43601.22587962963</v>
       </c>
       <c r="B606">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>43600.383206018516</v>
+        <v>43601.22587962963</v>
       </c>
       <c r="B607">
-        <v>298</v>
+        <v>201</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>43600.383217592593</v>
+        <v>43601.225891203707</v>
       </c>
       <c r="B608">
-        <v>199</v>
+        <v>262</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>43600.383217592593</v>
+        <v>43601.225891203707</v>
       </c>
       <c r="B609">
-        <v>197</v>
+        <v>239</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>43600.383217592593</v>
+        <v>43601.225891203707</v>
       </c>
       <c r="B610">
-        <v>324</v>
+        <v>295</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>43600.383217592593</v>
+        <v>43601.225891203707</v>
       </c>
       <c r="B611">
-        <v>224</v>
+        <v>193</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>43600.383217592593</v>
+        <v>43601.225891203707</v>
       </c>
       <c r="B612">
-        <v>274</v>
+        <v>148</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>43600.383229166669</v>
+        <v>43601.225891203707</v>
       </c>
       <c r="B613">
-        <v>199</v>
+        <v>166</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>43600.383229166669</v>
+        <v>43601.225891203707</v>
       </c>
       <c r="B614">
-        <v>199</v>
+        <v>253</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
-        <v>43600.383229166669</v>
+        <v>43601.225891203707</v>
       </c>
       <c r="B615">
-        <v>297</v>
+        <v>192</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>43600.383240740739</v>
+        <v>43601.225902777776</v>
       </c>
       <c r="B616">
-        <v>200</v>
+        <v>244</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>43600.383240740739</v>
+        <v>43601.225902777776</v>
       </c>
       <c r="B617">
-        <v>175</v>
+        <v>54</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>43600.383240740739</v>
+        <v>43601.225902777776</v>
       </c>
       <c r="B618">
-        <v>276</v>
+        <v>92</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>43600.383240740739</v>
+        <v>43601.225902777776</v>
       </c>
       <c r="B619">
-        <v>301</v>
+        <v>129</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>43600.383240740739</v>
+        <v>43601.225902777776</v>
       </c>
       <c r="B620">
-        <v>223</v>
+        <v>118</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>43600.383240740739</v>
+        <v>43601.225902777776</v>
       </c>
       <c r="B621">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>43600.383252314816</v>
+        <v>43601.225914351853</v>
       </c>
       <c r="B622">
-        <v>96</v>
+        <v>253</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>43600.383252314816</v>
+        <v>43601.225914351853</v>
       </c>
       <c r="B623">
-        <v>131</v>
+        <v>376</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>43600.383252314816</v>
+        <v>43601.225914351853</v>
       </c>
       <c r="B624">
-        <v>131</v>
+        <v>251</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>43600.383263888885</v>
+        <v>43601.225914351853</v>
       </c>
       <c r="B625">
-        <v>368</v>
+        <v>168</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>43600.383263888885</v>
+        <v>43601.225914351853</v>
       </c>
       <c r="B626">
-        <v>368</v>
+        <v>220</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>43600.383263888885</v>
+        <v>43601.225914351853</v>
       </c>
       <c r="B627">
-        <v>218</v>
+        <v>245</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>43600.383263888885</v>
+        <v>43601.225914351853</v>
       </c>
       <c r="B628">
-        <v>122</v>
+        <v>302</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>43600.383263888885</v>
+        <v>43601.225925925923</v>
       </c>
       <c r="B629">
-        <v>218</v>
+        <v>167</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>43600.383263888885</v>
+        <v>43601.225925925923</v>
       </c>
       <c r="B630">
-        <v>223</v>
+        <v>316</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>43600.383263888885</v>
+        <v>43601.225925925923</v>
       </c>
       <c r="B631">
-        <v>152</v>
+        <v>294</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>43600.383263888885</v>
+        <v>43601.225925925923</v>
       </c>
       <c r="B632">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>43600.383287037039</v>
+        <v>43601.225925925923</v>
       </c>
       <c r="B633">
-        <v>392</v>
+        <v>189</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>43600.383287037039</v>
+        <v>43601.225925925923</v>
       </c>
       <c r="B634">
-        <v>74</v>
+        <v>172</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>43600.383287037039</v>
+        <v>43601.225925925923</v>
       </c>
       <c r="B635">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>43600.383287037039</v>
+        <v>43601.225937499999</v>
       </c>
       <c r="B636">
-        <v>96</v>
+        <v>226</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>43600.383287037039</v>
+        <v>43601.225937499999</v>
       </c>
       <c r="B637">
-        <v>96</v>
+        <v>267</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>43600.383287037039</v>
+        <v>43601.225937499999</v>
       </c>
       <c r="B638">
-        <v>149</v>
+        <v>69</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>43600.383287037039</v>
+        <v>43601.225937499999</v>
       </c>
       <c r="B639">
-        <v>177</v>
+        <v>66</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>43600.383287037039</v>
+        <v>43601.225937499999</v>
       </c>
       <c r="B640">
-        <v>151</v>
+        <v>195</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>43600.383287037039</v>
+        <v>43601.225949074076</v>
       </c>
       <c r="B641">
-        <v>151</v>
+        <v>401</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>43600.383298611108</v>
+        <v>43601.225949074076</v>
       </c>
       <c r="B642">
-        <v>295</v>
+        <v>195</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>43600.383298611108</v>
+        <v>43601.225949074076</v>
       </c>
       <c r="B643">
-        <v>74</v>
+        <v>318</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>43600.383321759262</v>
+        <v>43601.225949074076</v>
       </c>
       <c r="B644">
-        <v>103</v>
+        <v>319</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>43600.383321759262</v>
+        <v>43601.225949074076</v>
       </c>
       <c r="B645">
-        <v>103</v>
+        <v>142</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>43600.383321759262</v>
+        <v>43601.225949074076</v>
       </c>
       <c r="B646">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>43600.383321759262</v>
+        <v>43601.225949074076</v>
       </c>
       <c r="B647">
-        <v>218</v>
+        <v>315</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
-        <v>43600.383321759262</v>
+        <v>43601.225949074076</v>
       </c>
       <c r="B648">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>43600.383321759262</v>
+        <v>43601.225960648146</v>
       </c>
       <c r="B649">
-        <v>176</v>
+        <v>225</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>43600.383321759262</v>
+        <v>43601.225960648146</v>
       </c>
       <c r="B650">
-        <v>224</v>
+        <v>193</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>43600.383333333331</v>
+        <v>43601.225960648146</v>
       </c>
       <c r="B651">
-        <v>250</v>
+        <v>168</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>43600.383333333331</v>
+        <v>43601.225960648146</v>
       </c>
       <c r="B652">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>43600.383344907408</v>
+        <v>43601.225960648146</v>
       </c>
       <c r="B653">
-        <v>49</v>
+        <v>265</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
-        <v>43600.383344907408</v>
+        <v>43601.225960648146</v>
       </c>
       <c r="B654">
-        <v>49</v>
+        <v>204</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
-        <v>43600.383344907408</v>
+        <v>43601.225960648146</v>
       </c>
       <c r="B655">
-        <v>151</v>
+        <v>218</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
-        <v>43600.383344907408</v>
+        <v>43601.225972222222</v>
       </c>
       <c r="B656">
-        <v>174</v>
+        <v>221</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
-        <v>43600.383344907408</v>
+        <v>43601.225972222222</v>
       </c>
       <c r="B657">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <v>43600.383344907408</v>
+        <v>43601.225972222222</v>
       </c>
       <c r="B658">
-        <v>151</v>
+        <v>227</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
-        <v>43600.383344907408</v>
+        <v>43601.225972222222</v>
       </c>
       <c r="B659">
-        <v>99</v>
+        <v>288</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
-        <v>43600.383368055554</v>
+        <v>43601.225972222222</v>
       </c>
       <c r="B660">
-        <v>241</v>
+        <v>304</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
-        <v>43600.383368055554</v>
+        <v>43601.225972222222</v>
       </c>
       <c r="B661">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
-        <v>43600.383368055554</v>
+        <v>43601.225983796299</v>
       </c>
       <c r="B662">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
-        <v>43600.383368055554</v>
+        <v>43601.225983796299</v>
       </c>
       <c r="B663">
-        <v>73</v>
+        <v>309</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
-        <v>43600.383368055554</v>
+        <v>43601.225983796299</v>
       </c>
       <c r="B664">
-        <v>77</v>
+        <v>414</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
-        <v>43600.383368055554</v>
+        <v>43601.225983796299</v>
       </c>
       <c r="B665">
-        <v>223</v>
+        <v>338</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
-        <v>43600.383368055554</v>
+        <v>43601.225983796299</v>
       </c>
       <c r="B666">
-        <v>124</v>
+        <v>169</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
-        <v>43600.383368055554</v>
+        <v>43601.225983796299</v>
       </c>
       <c r="B667">
-        <v>149</v>
+        <v>291</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
-        <v>43600.383379629631</v>
+        <v>43601.225995370369</v>
       </c>
       <c r="B668">
-        <v>149</v>
+        <v>341</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
-        <v>43600.383379629631</v>
+        <v>43601.225995370369</v>
       </c>
       <c r="B669">
-        <v>49</v>
+        <v>142</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
-        <v>43600.383391203701</v>
+        <v>43601.225995370369</v>
       </c>
       <c r="B670">
-        <v>298</v>
+        <v>369</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>43600.383391203701</v>
+        <v>43601.225995370369</v>
       </c>
       <c r="B671">
-        <v>52</v>
+        <v>215</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>43600.383391203701</v>
+        <v>43601.225995370369</v>
       </c>
       <c r="B672">
-        <v>52</v>
+        <v>192</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
-        <v>43600.383402777778</v>
+        <v>43601.226006944446</v>
       </c>
       <c r="B673">
-        <v>122</v>
+        <v>287</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
-        <v>43600.383402777778</v>
+        <v>43601.226006944446</v>
       </c>
       <c r="B674">
-        <v>261</v>
+        <v>306</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
-        <v>43600.383402777778</v>
+        <v>43601.226006944446</v>
       </c>
       <c r="B675">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>43600.383402777778</v>
+        <v>43601.226006944446</v>
       </c>
       <c r="B676">
-        <v>323</v>
+        <v>216</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>43600.383402777778</v>
+        <v>43601.226006944446</v>
       </c>
       <c r="B677">
-        <v>261</v>
+        <v>205</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
-        <v>43600.383402777778</v>
+        <v>43601.226006944446</v>
       </c>
       <c r="B678">
-        <v>200</v>
+        <v>253</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>43600.383414351854</v>
+        <v>43601.226018518515</v>
       </c>
       <c r="B679">
-        <v>276</v>
+        <v>321</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
-        <v>43600.383414351854</v>
+        <v>43601.226018518515</v>
       </c>
       <c r="B680">
-        <v>370</v>
+        <v>204</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
-        <v>43600.383414351854</v>
+        <v>43601.226018518515</v>
       </c>
       <c r="B681">
-        <v>344</v>
+        <v>294</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
-        <v>43600.383414351854</v>
+        <v>43601.226018518515</v>
       </c>
       <c r="B682">
-        <v>374</v>
+        <v>240</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
-        <v>43600.383414351854</v>
+        <v>43601.226018518515</v>
       </c>
       <c r="B683">
-        <v>374</v>
+        <v>254</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
-        <v>43600.383425925924</v>
+        <v>43601.226018518515</v>
       </c>
       <c r="B684">
-        <v>374</v>
+        <v>266</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
-        <v>43600.383425925924</v>
+        <v>43601.226018518515</v>
       </c>
       <c r="B685">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
-        <v>43600.383425925924</v>
+        <v>43601.226030092592</v>
       </c>
       <c r="B686">
-        <v>124</v>
+        <v>254</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
-        <v>43600.383425925924</v>
+        <v>43601.226030092592</v>
       </c>
       <c r="B687">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
-        <v>43600.383425925924</v>
+        <v>43601.226030092592</v>
       </c>
       <c r="B688">
-        <v>327</v>
+        <v>198</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>43600.383425925924</v>
+        <v>43601.226030092592</v>
       </c>
       <c r="B689">
-        <v>223</v>
+        <v>276</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>43600.383437500001</v>
+        <v>43601.226030092592</v>
       </c>
       <c r="B690">
-        <v>270</v>
+        <v>364</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
-        <v>43600.383437500001</v>
+        <v>43601.226041666669</v>
       </c>
       <c r="B691">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
-        <v>43600.383437500001</v>
+        <v>43601.226041666669</v>
       </c>
       <c r="B692">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
-        <v>43600.383437500001</v>
+        <v>43601.226041666669</v>
       </c>
       <c r="B693">
-        <v>298</v>
+        <v>347</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
-        <v>43600.383449074077</v>
+        <v>43601.226041666669</v>
       </c>
       <c r="B694">
-        <v>216</v>
+        <v>140</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
-        <v>43600.383460648147</v>
+        <v>43601.226041666669</v>
       </c>
       <c r="B695">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
-        <v>43600.383460648147</v>
+        <v>43601.226041666669</v>
       </c>
       <c r="B696">
-        <v>102</v>
+        <v>279</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
-        <v>43600.383460648147</v>
+        <v>43601.226041666669</v>
       </c>
       <c r="B697">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
-        <v>43600.383460648147</v>
+        <v>43601.226053240738</v>
       </c>
       <c r="B698">
-        <v>298</v>
+        <v>268</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
-        <v>43600.383460648147</v>
+        <v>43601.226053240738</v>
       </c>
       <c r="B699">
-        <v>298</v>
+        <v>217</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
-        <v>43600.383460648147</v>
+        <v>43601.226053240738</v>
       </c>
       <c r="B700">
-        <v>325</v>
+        <v>192</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
-        <v>43600.383460648147</v>
+        <v>43601.226053240738</v>
       </c>
       <c r="B701">
-        <v>325</v>
+        <v>347</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
-        <v>43600.383483796293</v>
+        <v>43601.226053240738</v>
       </c>
       <c r="B702">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
-        <v>43600.383483796293</v>
+        <v>43601.226053240738</v>
       </c>
       <c r="B703">
-        <v>243</v>
+        <v>312</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
-        <v>43600.383483796293</v>
+        <v>43601.226053240738</v>
       </c>
       <c r="B704">
-        <v>261</v>
+        <v>229</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
-        <v>43600.383483796293</v>
+        <v>43601.226064814815</v>
       </c>
       <c r="B705">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
-        <v>43600.383483796293</v>
+        <v>43601.226064814815</v>
       </c>
       <c r="B706">
-        <v>224</v>
+        <v>269</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
-        <v>43600.383483796293</v>
+        <v>43601.226064814815</v>
       </c>
       <c r="B707">
-        <v>248</v>
+        <v>215</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
-        <v>43600.383483796293</v>
+        <v>43601.226064814815</v>
       </c>
       <c r="B708">
-        <v>248</v>
+        <v>69</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>43600.383483796293</v>
+        <v>43601.226064814815</v>
       </c>
       <c r="B709">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
-        <v>43600.383483796293</v>
+        <v>43601.226064814815</v>
       </c>
       <c r="B710">
-        <v>396</v>
+        <v>265</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
-        <v>43600.383506944447</v>
+        <v>43601.226064814815</v>
       </c>
       <c r="B711">
-        <v>195</v>
+        <v>278</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
-        <v>43600.383506944447</v>
+        <v>43601.226076388892</v>
       </c>
       <c r="B712">
-        <v>32</v>
+        <v>116</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
-        <v>43600.383506944447</v>
+        <v>43601.226076388892</v>
       </c>
       <c r="B713">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
-        <v>43600.383506944447</v>
+        <v>43601.226076388892</v>
       </c>
       <c r="B714">
-        <v>169</v>
+        <v>318</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
-        <v>43600.383506944447</v>
+        <v>43601.226076388892</v>
       </c>
       <c r="B715">
-        <v>101</v>
+        <v>141</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
-        <v>43600.383506944447</v>
+        <v>43601.226076388892</v>
       </c>
       <c r="B716">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
-        <v>43600.383506944447</v>
+        <v>43601.226076388892</v>
       </c>
       <c r="B717">
-        <v>98</v>
+        <v>388</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
-        <v>43600.383506944447</v>
+        <v>43601.226076388892</v>
       </c>
       <c r="B718">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
-        <v>43600.383506944447</v>
+        <v>43601.226076388892</v>
       </c>
       <c r="B719">
-        <v>274</v>
+        <v>217</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
-        <v>43600.383518518516</v>
+        <v>43601.226087962961</v>
       </c>
       <c r="B720">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
-        <v>43600.383530092593</v>
+        <v>43601.226087962961</v>
       </c>
       <c r="B721">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
-        <v>43600.383530092593</v>
+        <v>43601.226087962961</v>
       </c>
       <c r="B722">
-        <v>249</v>
+        <v>375</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
-        <v>43600.383530092593</v>
+        <v>43601.226087962961</v>
       </c>
       <c r="B723">
-        <v>249</v>
+        <v>341</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
-        <v>43600.383530092593</v>
+        <v>43601.226087962961</v>
       </c>
       <c r="B724">
-        <v>248</v>
+        <v>178</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
-        <v>43600.383530092593</v>
+        <v>43601.226087962961</v>
       </c>
       <c r="B725">
-        <v>97</v>
+        <v>170</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
-        <v>43600.383530092593</v>
+        <v>43601.226099537038</v>
       </c>
       <c r="B726">
-        <v>97</v>
+        <v>292</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
-        <v>43600.383530092593</v>
+        <v>43601.226099537038</v>
       </c>
       <c r="B727">
-        <v>302</v>
+        <v>320</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
-        <v>43600.383553240739</v>
+        <v>43601.226099537038</v>
       </c>
       <c r="B728">
-        <v>250</v>
+        <v>364</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
-        <v>43600.383553240739</v>
+        <v>43601.226099537038</v>
       </c>
       <c r="B729">
-        <v>370</v>
+        <v>305</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
-        <v>43600.383553240739</v>
+        <v>43601.226099537038</v>
       </c>
       <c r="B730">
-        <v>370</v>
+        <v>245</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
-        <v>43600.383553240739</v>
+        <v>43601.226099537038</v>
       </c>
       <c r="B731">
-        <v>149</v>
+        <v>193</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
-        <v>43600.383553240739</v>
+        <v>43601.226099537038</v>
       </c>
       <c r="B732">
-        <v>275</v>
+        <v>241</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
-        <v>43600.383553240739</v>
+        <v>43601.226099537038</v>
       </c>
       <c r="B733">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
-        <v>43600.383576388886</v>
+        <v>43601.226111111115</v>
       </c>
       <c r="B734">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
-        <v>43600.383576388886</v>
+        <v>43601.226111111115</v>
       </c>
       <c r="B735">
-        <v>246</v>
+        <v>144</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
-        <v>43600.383576388886</v>
+        <v>43601.226111111115</v>
       </c>
       <c r="B736">
-        <v>228</v>
+        <v>317</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
-        <v>43600.383576388886</v>
+        <v>43601.226111111115</v>
       </c>
       <c r="B737">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
-        <v>43600.383576388886</v>
+        <v>43601.226111111115</v>
       </c>
       <c r="B738">
-        <v>249</v>
+        <v>325</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
-        <v>43600.383576388886</v>
+        <v>43601.226111111115</v>
       </c>
       <c r="B739">
-        <v>168</v>
+        <v>313</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
-        <v>43600.383587962962</v>
+        <v>43601.226111111115</v>
       </c>
       <c r="B740">
-        <v>225</v>
+        <v>267</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
-        <v>43600.383587962962</v>
+        <v>43601.226122685184</v>
       </c>
       <c r="B741">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
-        <v>43600.383599537039</v>
+        <v>43601.226122685184</v>
       </c>
       <c r="B742">
-        <v>249</v>
+        <v>350</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
-        <v>43600.383599537039</v>
+        <v>43601.226122685184</v>
       </c>
       <c r="B743">
-        <v>52</v>
+        <v>363</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
-        <v>43600.383599537039</v>
+        <v>43601.226122685184</v>
       </c>
       <c r="B744">
-        <v>318</v>
+        <v>235</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
-        <v>43600.383599537039</v>
+        <v>43601.226122685184</v>
       </c>
       <c r="B745">
-        <v>273</v>
+        <v>169</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
-        <v>43600.383599537039</v>
+        <v>43601.226122685184</v>
       </c>
       <c r="B746">
-        <v>174</v>
+        <v>220</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
-        <v>43600.383599537039</v>
+        <v>43601.226122685184</v>
       </c>
       <c r="B747">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
-        <v>43600.383599537039</v>
+        <v>43601.226122685184</v>
       </c>
       <c r="B748">
-        <v>266</v>
+        <v>243</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
-        <v>43600.383611111109</v>
+        <v>43601.226134259261</v>
       </c>
       <c r="B749">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
-        <v>43600.383611111109</v>
+        <v>43601.226134259261</v>
       </c>
       <c r="B750">
-        <v>200</v>
+        <v>350</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
-        <v>43600.383622685185</v>
+        <v>43601.226134259261</v>
       </c>
       <c r="B751">
-        <v>250</v>
+        <v>391</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
-        <v>43600.383622685185</v>
+        <v>43601.226134259261</v>
       </c>
       <c r="B752">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
-        <v>43600.383622685185</v>
+        <v>43601.226145833331</v>
       </c>
       <c r="B753">
-        <v>199</v>
+        <v>274</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
-        <v>43600.383622685185</v>
+        <v>43601.226145833331</v>
       </c>
       <c r="B754">
-        <v>98</v>
+        <v>320</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
-        <v>43600.383622685185</v>
+        <v>43601.226145833331</v>
       </c>
       <c r="B755">
-        <v>98</v>
+        <v>238</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
-        <v>43600.383622685185</v>
+        <v>43601.226145833331</v>
       </c>
       <c r="B756">
-        <v>200</v>
+        <v>231</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
-        <v>43600.383622685185</v>
+        <v>43601.226145833331</v>
       </c>
       <c r="B757">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
-        <v>43600.383622685185</v>
+        <v>43601.226145833331</v>
       </c>
       <c r="B758">
-        <v>249</v>
+        <v>25</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
-        <v>43600.383634259262</v>
+        <v>43601.226145833331</v>
       </c>
       <c r="B759">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
-        <v>43600.383645833332</v>
+        <v>43601.226157407407</v>
       </c>
       <c r="B760">
-        <v>342</v>
+        <v>197</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
-        <v>43600.383657407408</v>
+        <v>43601.226157407407</v>
       </c>
       <c r="B761">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
-        <v>43600.383657407408</v>
+        <v>43601.226157407407</v>
       </c>
       <c r="B762">
-        <v>249</v>
+        <v>170</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
-        <v>43600.383657407408</v>
+        <v>43601.226157407407</v>
       </c>
       <c r="B763">
-        <v>205</v>
+        <v>141</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
-        <v>43600.383657407408</v>
+        <v>43601.226157407407</v>
       </c>
       <c r="B764">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
-        <v>43600.383657407408</v>
+        <v>43601.226157407407</v>
       </c>
       <c r="B765">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
-        <v>43600.383657407408</v>
+        <v>43601.226168981484</v>
       </c>
       <c r="B766">
-        <v>344</v>
+        <v>170</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
-        <v>43600.383657407408</v>
+        <v>43601.226168981484</v>
       </c>
       <c r="B767">
-        <v>190</v>
+        <v>117</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
-        <v>43600.383668981478</v>
+        <v>43601.226168981484</v>
       </c>
       <c r="B768">
-        <v>299</v>
+        <v>119</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
-        <v>43600.383680555555</v>
+        <v>43601.226168981484</v>
       </c>
       <c r="B769">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
-        <v>43600.383680555555</v>
+        <v>43601.226168981484</v>
       </c>
       <c r="B770">
-        <v>294</v>
+        <v>142</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
-        <v>43600.383680555555</v>
+        <v>43601.226168981484</v>
       </c>
       <c r="B771">
-        <v>271</v>
+        <v>243</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
-        <v>43600.383680555555</v>
+        <v>43601.226180555554</v>
       </c>
       <c r="B772">
-        <v>296</v>
+        <v>449</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
-        <v>43600.383680555555</v>
+        <v>43601.226180555554</v>
       </c>
       <c r="B773">
-        <v>198</v>
+        <v>370</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
-        <v>43600.383680555555</v>
+        <v>43601.226180555554</v>
       </c>
       <c r="B774">
-        <v>198</v>
+        <v>320</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
-        <v>43600.383692129632</v>
+        <v>43601.226180555554</v>
       </c>
       <c r="B775">
-        <v>76</v>
+        <v>131</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
-        <v>43600.383692129632</v>
+        <v>43601.226180555554</v>
       </c>
       <c r="B776">
-        <v>90</v>
+        <v>376</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
-        <v>43600.383692129632</v>
+        <v>43601.226180555554</v>
       </c>
       <c r="B777">
-        <v>197</v>
+        <v>310</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
-        <v>43600.383692129632</v>
+        <v>43601.226180555554</v>
       </c>
       <c r="B778">
-        <v>150</v>
+        <v>26</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
-        <v>43600.383703703701</v>
+        <v>43601.226180555554</v>
       </c>
       <c r="B779">
-        <v>259</v>
+        <v>26</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
-        <v>43600.383703703701</v>
+        <v>43601.22619212963</v>
       </c>
       <c r="B780">
-        <v>193</v>
+        <v>248</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
-        <v>43600.383703703701</v>
+        <v>43601.22619212963</v>
       </c>
       <c r="B781">
-        <v>145</v>
+        <v>348</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
-        <v>43600.383703703701</v>
+        <v>43601.22619212963</v>
       </c>
       <c r="B782">
-        <v>247</v>
+        <v>337</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
-        <v>43600.383715277778</v>
+        <v>43601.22619212963</v>
       </c>
       <c r="B783">
-        <v>149</v>
+        <v>323</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
-        <v>43600.383715277778</v>
+        <v>43601.22619212963</v>
       </c>
       <c r="B784">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
-        <v>43600.383715277778</v>
+        <v>43601.22619212963</v>
       </c>
       <c r="B785">
-        <v>96</v>
+        <v>168</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
-        <v>43600.383715277778</v>
+        <v>43601.22619212963</v>
       </c>
       <c r="B786">
-        <v>276</v>
+        <v>252</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
-        <v>43600.383715277778</v>
+        <v>43601.226203703707</v>
       </c>
       <c r="B787">
-        <v>276</v>
+        <v>196</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
-        <v>43600.383726851855</v>
+        <v>43601.226203703707</v>
       </c>
       <c r="B788">
-        <v>230</v>
+        <v>118</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
-        <v>43600.383726851855</v>
+        <v>43601.226203703707</v>
       </c>
       <c r="B789">
-        <v>268</v>
+        <v>290</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
-        <v>43600.383726851855</v>
+        <v>43601.226203703707</v>
       </c>
       <c r="B790">
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
-        <v>43600.383738425924</v>
+        <v>43601.226203703707</v>
       </c>
       <c r="B791">
-        <v>261</v>
+        <v>350</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
-        <v>43600.383738425924</v>
+        <v>43601.226203703707</v>
       </c>
       <c r="B792">
-        <v>261</v>
+        <v>354</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
-        <v>43600.383738425924</v>
+        <v>43601.226215277777</v>
       </c>
       <c r="B793">
-        <v>261</v>
+        <v>145</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
-        <v>43600.383738425924</v>
+        <v>43601.226215277777</v>
       </c>
       <c r="B794">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
-        <v>43600.383738425924</v>
+        <v>43601.226215277777</v>
       </c>
       <c r="B795">
-        <v>343</v>
+        <v>180</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
-        <v>43600.383738425924</v>
+        <v>43601.226215277777</v>
       </c>
       <c r="B796">
-        <v>369</v>
+        <v>92</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
-        <v>43600.383738425924</v>
+        <v>43601.226215277777</v>
       </c>
       <c r="B797">
-        <v>72</v>
+        <v>202</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
-        <v>43600.383750000001</v>
+        <v>43601.226215277777</v>
       </c>
       <c r="B798">
-        <v>219</v>
+        <v>118</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
-        <v>43600.383761574078</v>
+        <v>43601.226226851853</v>
       </c>
       <c r="B799">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
-        <v>43600.383761574078</v>
+        <v>43601.226226851853</v>
       </c>
       <c r="B800">
-        <v>266</v>
+        <v>349</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
-        <v>43600.383761574078</v>
+        <v>43601.226226851853</v>
       </c>
       <c r="B801">
-        <v>99</v>
+        <v>254</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
-        <v>43600.383761574078</v>
+        <v>43601.226226851853</v>
       </c>
       <c r="B802">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
-        <v>43600.383773148147</v>
+        <v>43601.226226851853</v>
       </c>
       <c r="B803">
-        <v>150</v>
+        <v>178</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
-        <v>43600.383773148147</v>
+        <v>43601.226226851853</v>
       </c>
       <c r="B804">
-        <v>275</v>
+        <v>197</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
-        <v>43600.383773148147</v>
+        <v>43601.226226851853</v>
       </c>
       <c r="B805">
-        <v>151</v>
+        <v>92</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
-        <v>43600.383784722224</v>
+        <v>43601.226226851853</v>
       </c>
       <c r="B806">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
-        <v>43600.383784722224</v>
+        <v>43601.226226851853</v>
       </c>
       <c r="B807">
-        <v>301</v>
+        <v>391</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
-        <v>43600.383784722224</v>
+        <v>43601.226238425923</v>
       </c>
       <c r="B808">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
-        <v>43600.383796296293</v>
+        <v>43601.226238425923</v>
       </c>
       <c r="B809">
-        <v>399</v>
+        <v>106</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
-        <v>43600.383796296293</v>
+        <v>43601.226238425923</v>
       </c>
       <c r="B810">
-        <v>401</v>
+        <v>311</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
-        <v>43600.383796296293</v>
+        <v>43601.226238425923</v>
       </c>
       <c r="B811">
-        <v>401</v>
+        <v>217</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
-        <v>43600.383796296293</v>
+        <v>43601.226238425923</v>
       </c>
       <c r="B812">
-        <v>276</v>
+        <v>361</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
-        <v>43600.38380787037</v>
+        <v>43601.226238425923</v>
       </c>
       <c r="B813">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
-        <v>43600.38380787037</v>
+        <v>43601.22625</v>
       </c>
       <c r="B814">
-        <v>247</v>
+        <v>131</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
-        <v>43600.38380787037</v>
+        <v>43601.22625</v>
       </c>
       <c r="B815">
-        <v>149</v>
+        <v>253</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
-        <v>43600.38380787037</v>
+        <v>43601.22625</v>
       </c>
       <c r="B816">
-        <v>149</v>
+        <v>271</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
-        <v>43600.38380787037</v>
+        <v>43601.22625</v>
       </c>
       <c r="B817">
-        <v>149</v>
+        <v>285</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
-        <v>43600.38380787037</v>
+        <v>43601.22625</v>
       </c>
       <c r="B818">
-        <v>149</v>
+        <v>116</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
-        <v>43600.38380787037</v>
+        <v>43601.22625</v>
       </c>
       <c r="B819">
-        <v>174</v>
+        <v>325</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
-        <v>43600.383819444447</v>
+        <v>43601.22625</v>
       </c>
       <c r="B820">
         <v>195</v>
@@ -7017,1106 +7038,1106 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
-        <v>43600.383831018517</v>
+        <v>43601.22625</v>
       </c>
       <c r="B821">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
-        <v>43600.383831018517</v>
+        <v>43601.226261574076</v>
       </c>
       <c r="B822">
-        <v>171</v>
+        <v>129</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
-        <v>43600.383831018517</v>
+        <v>43601.226261574076</v>
       </c>
       <c r="B823">
-        <v>225</v>
+        <v>193</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
-        <v>43600.383831018517</v>
+        <v>43601.226261574076</v>
       </c>
       <c r="B824">
-        <v>225</v>
+        <v>192</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
-        <v>43600.383831018517</v>
+        <v>43601.226261574076</v>
       </c>
       <c r="B825">
-        <v>225</v>
+        <v>51</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
-        <v>43600.383831018517</v>
+        <v>43601.226261574076</v>
       </c>
       <c r="B826">
-        <v>98</v>
+        <v>266</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
-        <v>43600.383831018517</v>
+        <v>43601.226261574076</v>
       </c>
       <c r="B827">
-        <v>98</v>
+        <v>266</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
-        <v>43600.383831018517</v>
+        <v>43601.226273148146</v>
       </c>
       <c r="B828">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
-        <v>43600.383842592593</v>
+        <v>43601.226273148146</v>
       </c>
       <c r="B829">
-        <v>75</v>
+        <v>268</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
-        <v>43600.383842592593</v>
+        <v>43601.226273148146</v>
       </c>
       <c r="B830">
-        <v>193</v>
+        <v>270</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
-        <v>43600.383842592593</v>
+        <v>43601.226273148146</v>
       </c>
       <c r="B831">
-        <v>97</v>
+        <v>303</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
-        <v>43600.383842592593</v>
+        <v>43601.226273148146</v>
       </c>
       <c r="B832">
-        <v>276</v>
+        <v>144</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
-        <v>43600.38385416667</v>
+        <v>43601.226284722223</v>
       </c>
       <c r="B833">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
-        <v>43600.38385416667</v>
+        <v>43601.226284722223</v>
       </c>
       <c r="B834">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
-        <v>43600.38385416667</v>
+        <v>43601.226284722223</v>
       </c>
       <c r="B835">
-        <v>196</v>
+        <v>108</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
-        <v>43600.38385416667</v>
+        <v>43601.226284722223</v>
       </c>
       <c r="B836">
-        <v>225</v>
+        <v>353</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
-        <v>43600.38385416667</v>
+        <v>43601.226284722223</v>
       </c>
       <c r="B837">
-        <v>151</v>
+        <v>365</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
-        <v>43600.38385416667</v>
+        <v>43601.226284722223</v>
       </c>
       <c r="B838">
-        <v>247</v>
+        <v>302</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
-        <v>43600.38386574074</v>
+        <v>43601.226284722223</v>
       </c>
       <c r="B839">
-        <v>368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
-        <v>43600.383877314816</v>
+        <v>43601.2262962963</v>
       </c>
       <c r="B840">
-        <v>28</v>
+        <v>293</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
-        <v>43600.383877314816</v>
+        <v>43601.2262962963</v>
       </c>
       <c r="B841">
-        <v>127</v>
+        <v>329</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
-        <v>43600.383877314816</v>
+        <v>43601.2262962963</v>
       </c>
       <c r="B842">
-        <v>77</v>
+        <v>292</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
-        <v>43600.383877314816</v>
+        <v>43601.2262962963</v>
       </c>
       <c r="B843">
-        <v>420</v>
+        <v>294</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
-        <v>43600.383877314816</v>
+        <v>43601.2262962963</v>
       </c>
       <c r="B844">
-        <v>420</v>
+        <v>241</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
-        <v>43600.383877314816</v>
+        <v>43601.2262962963</v>
       </c>
       <c r="B845">
-        <v>400</v>
+        <v>254</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
-        <v>43600.383877314816</v>
+        <v>43601.2262962963</v>
       </c>
       <c r="B846">
-        <v>398</v>
+        <v>93</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
-        <v>43600.383877314816</v>
+        <v>43601.2262962963</v>
       </c>
       <c r="B847">
-        <v>347</v>
+        <v>425</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
-        <v>43600.383888888886</v>
+        <v>43601.226307870369</v>
       </c>
       <c r="B848">
-        <v>176</v>
+        <v>414</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
-        <v>43600.383888888886</v>
+        <v>43601.226307870369</v>
       </c>
       <c r="B849">
-        <v>195</v>
+        <v>167</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
-        <v>43600.383888888886</v>
+        <v>43601.226307870369</v>
       </c>
       <c r="B850">
-        <v>370</v>
+        <v>272</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
-        <v>43600.383888888886</v>
+        <v>43601.226307870369</v>
       </c>
       <c r="B851">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
-        <v>43600.383900462963</v>
+        <v>43601.226307870369</v>
       </c>
       <c r="B852">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
-        <v>43600.383900462963</v>
+        <v>43601.226307870369</v>
       </c>
       <c r="B853">
-        <v>223</v>
+        <v>78</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
-        <v>43600.383900462963</v>
+        <v>43601.226319444446</v>
       </c>
       <c r="B854">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
-        <v>43600.383900462963</v>
+        <v>43601.226319444446</v>
       </c>
       <c r="B855">
-        <v>175</v>
+        <v>305</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
-        <v>43600.383900462963</v>
+        <v>43601.226319444446</v>
       </c>
       <c r="B856">
-        <v>175</v>
+        <v>334</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
-        <v>43600.383912037039</v>
+        <v>43601.226319444446</v>
       </c>
       <c r="B857">
-        <v>244</v>
+        <v>117</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
-        <v>43600.383912037039</v>
+        <v>43601.226319444446</v>
       </c>
       <c r="B858">
-        <v>275</v>
+        <v>117</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
-        <v>43600.383912037039</v>
+        <v>43601.226319444446</v>
       </c>
       <c r="B859">
-        <v>248</v>
+        <v>216</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
-        <v>43600.383912037039</v>
+        <v>43601.226319444446</v>
       </c>
       <c r="B860">
-        <v>350</v>
+        <v>235</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
-        <v>43600.383923611109</v>
+        <v>43601.226331018515</v>
       </c>
       <c r="B861">
-        <v>51</v>
+        <v>145</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
-        <v>43600.383935185186</v>
+        <v>43601.226331018515</v>
       </c>
       <c r="B862">
-        <v>299</v>
+        <v>118</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
-        <v>43600.383935185186</v>
+        <v>43601.226331018515</v>
       </c>
       <c r="B863">
-        <v>299</v>
+        <v>335</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
-        <v>43600.383935185186</v>
+        <v>43601.226331018515</v>
       </c>
       <c r="B864">
-        <v>299</v>
+        <v>335</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
-        <v>43600.383935185186</v>
+        <v>43601.226331018515</v>
       </c>
       <c r="B865">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
-        <v>43600.383935185186</v>
+        <v>43601.226331018515</v>
       </c>
       <c r="B866">
-        <v>246</v>
+        <v>310</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
-        <v>43600.383946759262</v>
+        <v>43601.226331018515</v>
       </c>
       <c r="B867">
-        <v>123</v>
+        <v>170</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
-        <v>43600.383946759262</v>
+        <v>43601.226342592592</v>
       </c>
       <c r="B868">
-        <v>175</v>
+        <v>298</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
-        <v>43600.383946759262</v>
+        <v>43601.226342592592</v>
       </c>
       <c r="B869">
-        <v>173</v>
+        <v>65</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
-        <v>43600.383946759262</v>
+        <v>43601.226342592592</v>
       </c>
       <c r="B870">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
-        <v>43600.383946759262</v>
+        <v>43601.226342592592</v>
       </c>
       <c r="B871">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
-        <v>43600.383946759262</v>
+        <v>43601.226342592592</v>
       </c>
       <c r="B872">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
-        <v>43600.383969907409</v>
+        <v>43601.226354166669</v>
       </c>
       <c r="B873">
-        <v>177</v>
+        <v>337</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
-        <v>43600.383969907409</v>
+        <v>43601.226354166669</v>
       </c>
       <c r="B874">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
-        <v>43600.383969907409</v>
+        <v>43601.226354166669</v>
       </c>
       <c r="B875">
-        <v>124</v>
+        <v>377</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
-        <v>43600.383969907409</v>
+        <v>43601.226354166669</v>
       </c>
       <c r="B876">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
-        <v>43600.383981481478</v>
+        <v>43601.226354166669</v>
       </c>
       <c r="B877">
-        <v>124</v>
+        <v>239</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
-        <v>43600.383981481478</v>
+        <v>43601.226354166669</v>
       </c>
       <c r="B878">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
-        <v>43600.383981481478</v>
+        <v>43601.226354166669</v>
       </c>
       <c r="B879">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
-        <v>43600.383993055555</v>
+        <v>43601.226354166669</v>
       </c>
       <c r="B880">
-        <v>74</v>
+        <v>405</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
-        <v>43600.383993055555</v>
+        <v>43601.226354166669</v>
       </c>
       <c r="B881">
-        <v>190</v>
+        <v>298</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
-        <v>43600.384004629632</v>
+        <v>43601.226365740738</v>
       </c>
       <c r="B882">
-        <v>173</v>
+        <v>338</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
-        <v>43600.384016203701</v>
+        <v>43601.226365740738</v>
       </c>
       <c r="B883">
-        <v>168</v>
+        <v>363</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
-        <v>43600.384027777778</v>
+        <v>43601.226365740738</v>
       </c>
       <c r="B884">
-        <v>102</v>
+        <v>228</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
-        <v>43600.384039351855</v>
+        <v>43601.226365740738</v>
       </c>
       <c r="B885">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
-        <v>43600.384050925924</v>
+        <v>43601.226365740738</v>
       </c>
       <c r="B886">
-        <v>327</v>
+        <v>199</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
-        <v>43600.384050925924</v>
+        <v>43601.226365740738</v>
       </c>
       <c r="B887">
-        <v>325</v>
+        <v>197</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
-        <v>43600.384062500001</v>
+        <v>43601.226365740738</v>
       </c>
       <c r="B888">
-        <v>0</v>
+        <v>389</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
-        <v>43600.330983796295</v>
+        <v>43601.226377314815</v>
       </c>
       <c r="B889">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
-        <v>43600.330983796295</v>
+        <v>43601.226377314815</v>
       </c>
       <c r="B890">
-        <v>252</v>
+        <v>195</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
-        <v>43600.330995370372</v>
+        <v>43601.226377314815</v>
       </c>
       <c r="B891">
-        <v>200</v>
+        <v>281</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
-        <v>43600.331006944441</v>
+        <v>43601.226377314815</v>
       </c>
       <c r="B892">
-        <v>75</v>
+        <v>181</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
-        <v>43600.331018518518</v>
+        <v>43601.226377314815</v>
       </c>
       <c r="B893">
-        <v>299</v>
+        <v>89</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
-        <v>43600.331030092595</v>
+        <v>43601.226377314815</v>
       </c>
       <c r="B894">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
-        <v>43600.331041666665</v>
+        <v>43601.226377314815</v>
       </c>
       <c r="B895">
-        <v>348</v>
+        <v>228</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
-        <v>43600.331041666665</v>
+        <v>43601.226388888892</v>
       </c>
       <c r="B896">
-        <v>275</v>
+        <v>94</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
-        <v>43600.331053240741</v>
+        <v>43601.226388888892</v>
       </c>
       <c r="B897">
-        <v>75</v>
+        <v>248</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
-        <v>43600.331064814818</v>
+        <v>43601.226388888892</v>
       </c>
       <c r="B898">
-        <v>124</v>
+        <v>322</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
-        <v>43600.331076388888</v>
+        <v>43601.226388888892</v>
       </c>
       <c r="B899">
-        <v>76</v>
+        <v>312</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
-        <v>43600.331076388888</v>
+        <v>43601.226388888892</v>
       </c>
       <c r="B900">
-        <v>76</v>
+        <v>147</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
-        <v>43600.331087962964</v>
+        <v>43601.226400462961</v>
       </c>
       <c r="B901">
-        <v>248</v>
+        <v>118</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
-        <v>43600.331099537034</v>
+        <v>43601.226400462961</v>
       </c>
       <c r="B902">
-        <v>225</v>
+        <v>27</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
-        <v>43600.331111111111</v>
+        <v>43601.226400462961</v>
       </c>
       <c r="B903">
-        <v>101</v>
+        <v>191</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
-        <v>43600.331111111111</v>
+        <v>43601.226400462961</v>
       </c>
       <c r="B904">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
-        <v>43600.331122685187</v>
+        <v>43601.226400462961</v>
       </c>
       <c r="B905">
-        <v>246</v>
+        <v>312</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
-        <v>43600.331134259257</v>
+        <v>43601.226400462961</v>
       </c>
       <c r="B906">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
-        <v>43600.331145833334</v>
+        <v>43601.226400462961</v>
       </c>
       <c r="B907">
-        <v>149</v>
+        <v>443</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
-        <v>43600.331157407411</v>
+        <v>43601.226400462961</v>
       </c>
       <c r="B908">
-        <v>368</v>
+        <v>171</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
-        <v>43600.331157407411</v>
+        <v>43601.226412037038</v>
       </c>
       <c r="B909">
-        <v>77</v>
+        <v>271</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
-        <v>43600.33116898148</v>
+        <v>43601.226412037038</v>
       </c>
       <c r="B910">
-        <v>198</v>
+        <v>377</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
-        <v>43600.331180555557</v>
+        <v>43601.226412037038</v>
       </c>
       <c r="B911">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
-        <v>43600.331192129626</v>
+        <v>43601.226412037038</v>
       </c>
       <c r="B912">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
-        <v>43600.331192129626</v>
+        <v>43601.226412037038</v>
       </c>
       <c r="B913">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
-        <v>43600.331203703703</v>
+        <v>43601.226412037038</v>
       </c>
       <c r="B914">
-        <v>227</v>
+        <v>118</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
-        <v>43600.33121527778</v>
+        <v>43601.226412037038</v>
       </c>
       <c r="B915">
-        <v>322</v>
+        <v>271</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
-        <v>43600.331226851849</v>
+        <v>43601.226423611108</v>
       </c>
       <c r="B916">
-        <v>151</v>
+        <v>390</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
-        <v>43600.331226851849</v>
+        <v>43601.226423611108</v>
       </c>
       <c r="B917">
-        <v>250</v>
+        <v>128</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
-        <v>43600.331238425926</v>
+        <v>43601.226423611108</v>
       </c>
       <c r="B918">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
-        <v>43600.331250000003</v>
+        <v>43601.226423611108</v>
       </c>
       <c r="B919">
-        <v>76</v>
+        <v>338</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
-        <v>43600.331261574072</v>
+        <v>43601.226423611108</v>
       </c>
       <c r="B920">
-        <v>199</v>
+        <v>308</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
-        <v>43600.331273148149</v>
+        <v>43601.226423611108</v>
       </c>
       <c r="B921">
-        <v>243</v>
+        <v>387</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
-        <v>43600.331273148149</v>
+        <v>43601.226423611108</v>
       </c>
       <c r="B922">
-        <v>197</v>
+        <v>95</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
-        <v>43600.331284722219</v>
+        <v>43601.226423611108</v>
       </c>
       <c r="B923">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
-        <v>43600.331296296295</v>
+        <v>43601.226435185185</v>
       </c>
       <c r="B924">
-        <v>247</v>
+        <v>145</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
-        <v>43600.331307870372</v>
+        <v>43601.226435185185</v>
       </c>
       <c r="B925">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
-        <v>43600.331307870372</v>
+        <v>43601.226435185185</v>
       </c>
       <c r="B926">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
-        <v>43600.331319444442</v>
+        <v>43601.226435185185</v>
       </c>
       <c r="B927">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
-        <v>43600.331331018519</v>
+        <v>43601.226435185185</v>
       </c>
       <c r="B928">
-        <v>99</v>
+        <v>308</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
-        <v>43600.331331018519</v>
+        <v>43601.226435185185</v>
       </c>
       <c r="B929">
-        <v>226</v>
+        <v>121</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
-        <v>43600.331342592595</v>
+        <v>43601.226435185185</v>
       </c>
       <c r="B930">
-        <v>173</v>
+        <v>300</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
-        <v>43600.331354166665</v>
+        <v>43601.226446759261</v>
       </c>
       <c r="B931">
-        <v>74</v>
+        <v>249</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
-        <v>43600.331365740742</v>
+        <v>43601.226446759261</v>
       </c>
       <c r="B932">
-        <v>270</v>
+        <v>138</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
-        <v>43600.331377314818</v>
+        <v>43601.226446759261</v>
       </c>
       <c r="B933">
-        <v>274</v>
+        <v>338</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
-        <v>43600.331377314818</v>
+        <v>43601.226446759261</v>
       </c>
       <c r="B934">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A935" s="1">
-        <v>43600.331388888888</v>
+        <v>43601.226446759261</v>
       </c>
       <c r="B935">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
-        <v>43600.331400462965</v>
+        <v>43601.226446759261</v>
       </c>
       <c r="B936">
-        <v>247</v>
+        <v>323</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
-        <v>43600.331412037034</v>
+        <v>43601.226446759261</v>
       </c>
       <c r="B937">
-        <v>198</v>
+        <v>320</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
-        <v>43600.331423611111</v>
+        <v>43601.226458333331</v>
       </c>
       <c r="B938">
-        <v>83</v>
+        <v>238</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
-        <v>43600.331423611111</v>
+        <v>43601.226458333331</v>
       </c>
       <c r="B939">
-        <v>150</v>
+        <v>192</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A940" s="1">
-        <v>43600.331435185188</v>
+        <v>43601.226458333331</v>
       </c>
       <c r="B940">
-        <v>72</v>
+        <v>371</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A941" s="1">
-        <v>43600.331446759257</v>
+        <v>43601.226458333331</v>
       </c>
       <c r="B941">
-        <v>178</v>
+        <v>391</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A942" s="1">
-        <v>43600.331458333334</v>
+        <v>43601.226458333331</v>
       </c>
       <c r="B942">
-        <v>370</v>
+        <v>243</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
-        <v>43600.331458333334</v>
+        <v>43601.226458333331</v>
       </c>
       <c r="B943">
-        <v>125</v>
+        <v>346</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
-        <v>43600.331469907411</v>
+        <v>43601.226458333331</v>
       </c>
       <c r="B944">
-        <v>293</v>
+        <v>93</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A945" s="1">
-        <v>43600.33148148148</v>
+        <v>43601.226469907408</v>
       </c>
       <c r="B945">
-        <v>129</v>
+        <v>291</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A946" s="1">
-        <v>43600.331493055557</v>
+        <v>43601.226469907408</v>
       </c>
       <c r="B946">
-        <v>369</v>
+        <v>245</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A947" s="1">
-        <v>43600.331493055557</v>
+        <v>43601.226469907408</v>
       </c>
       <c r="B947">
-        <v>146</v>
+        <v>422</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A948" s="1">
-        <v>43600.331504629627</v>
+        <v>43600.416678240741</v>
       </c>
       <c r="B948">
-        <v>71</v>
+        <v>223</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
-        <v>43600.331516203703</v>
+        <v>43600.416678240741</v>
       </c>
       <c r="B949">
-        <v>297</v>
+        <v>173</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A950" s="1">
-        <v>43600.33152777778</v>
+        <v>43600.416689814818</v>
       </c>
       <c r="B950">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A951" s="1">
-        <v>43600.33153935185</v>
+        <v>43600.416689814818</v>
       </c>
       <c r="B951">
-        <v>99</v>
+        <v>348</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A952" s="1">
-        <v>43600.33153935185</v>
+        <v>43600.416689814818</v>
       </c>
       <c r="B952">
-        <v>224</v>
+        <v>253</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A953" s="1">
-        <v>43600.331550925926</v>
+        <v>43600.416689814818</v>
       </c>
       <c r="B953">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A954" s="1">
-        <v>43600.331562500003</v>
+        <v>43600.416689814818</v>
       </c>
       <c r="B954">
-        <v>148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
-        <v>43600.331574074073</v>
+        <v>43600.416689814818</v>
       </c>
       <c r="B955">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
-        <v>43600.331585648149</v>
+        <v>43600.416701388887</v>
       </c>
       <c r="B956">
-        <v>301</v>
+        <v>122</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
-        <v>43600.331597222219</v>
+        <v>43600.416701388887</v>
       </c>
       <c r="B957">
-        <v>226</v>
+        <v>125</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
-        <v>43600.331608796296</v>
+        <v>43600.416701388887</v>
       </c>
       <c r="B958">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.25">
